--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_20_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_20_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>573179.5101971488</v>
+        <v>567810.8659434124</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24800647.34639854</v>
+        <v>24800647.34639852</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9439838.114062928</v>
+        <v>9439838.114062915</v>
       </c>
     </row>
     <row r="9">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>395.4395794526591</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="E11" t="n">
-        <v>238.0300965764658</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>211.374103147909</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3325309612515</v>
+        <v>47.82264774928332</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>87.36205364029937</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>153.5064939118948</v>
@@ -1508,16 +1508,16 @@
         <v>195.3080652461509</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>206.9068650631644</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>107.6859412297287</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -1533,22 +1533,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6955818830934</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2668846021892</v>
       </c>
       <c r="I13" t="n">
-        <v>88.64925936138791</v>
+        <v>88.64925936138789</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>233.3834017976947</v>
       </c>
       <c r="U13" t="n">
-        <v>44.15812071367473</v>
+        <v>279.9220402367579</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.9709945913348</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>243.8895064085347</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>9.657471764407106</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>89.10643068470982</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.374103147909</v>
@@ -1666,7 +1666,7 @@
         <v>254.3325309612515</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>293.553008521877</v>
       </c>
     </row>
     <row r="15">
@@ -1688,10 +1688,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
@@ -1700,7 +1700,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>104.8678014522144</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>59.87567480520313</v>
@@ -1742,13 +1742,13 @@
         <v>153.5064939118948</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>112.7736160061008</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>182.1977561304719</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6955818830934</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2668846021892</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>88.64925936138791</v>
+        <v>88.64925936138789</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.74833734190508</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>169.1516756848362</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3834017976947</v>
       </c>
       <c r="U16" t="n">
-        <v>159.1060399701292</v>
+        <v>175.1272147790398</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>363.8200631783782</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,64 +1855,64 @@
         <v>395.4395794526591</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>379.9226978561831</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>395.4395794526591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>395.4395794526591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>287.6554033985326</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9.657471764407106</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>50.99030641896253</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>104.8678014522144</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>59.87567480520313</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>87.36205364029937</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>153.5064939118948</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3080652461509</v>
+        <v>75.96472100165171</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>16.18382669961844</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>15.44185730530291</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>88.64925936138791</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.74833734190508</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>169.1516756848362</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>233.3834017976947</v>
@@ -2061,7 +2061,7 @@
         <v>279.9220402367579</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>206.5278141521697</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="D20" t="n">
-        <v>395.4395794526591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>395.4395794526591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>395.4395794526591</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.64777818336968</v>
+        <v>60.64777818336945</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>31.1836608300114</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
@@ -2174,7 +2174,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.8678014522144</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>59.87567480520313</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>87.36205364029938</v>
+        <v>87.36205364029937</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>153.5064939118948</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3080652461509</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>75.96472100165217</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>29.27572750466337</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6955818830934</v>
+        <v>66.37082743315587</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2668846021892</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>88.64925936138791</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3834017976947</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9220402367579</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>395.439579452659</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>395.439579452659</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="H23" t="n">
-        <v>287.6554033985326</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>89.10643068470984</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.9809269513184</v>
+        <v>348.3031815819023</v>
       </c>
     </row>
     <row r="24">
@@ -2402,19 +2402,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>39.91843968622903</v>
       </c>
       <c r="G24" t="n">
-        <v>104.8678014522144</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>59.87567480520313</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>153.5064939118948</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>195.3080652461509</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>57.98539803387427</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>17.27353510544009</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>164.6955818830934</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.74833734190508</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>169.1516756848362</v>
@@ -2532,19 +2532,19 @@
         <v>233.3834017976947</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9220402367579</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>135.6135718668048</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>395.4395794526591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>395.4395794526591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>20.3811015324167</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>9.657471764407106</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.10643068470984</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>99.83006045271976</v>
       </c>
       <c r="U26" t="n">
         <v>254.3325309612515</v>
@@ -2636,10 +2636,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
@@ -2648,7 +2648,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>104.8678014522144</v>
+        <v>4.827604400249196</v>
       </c>
       <c r="H27" t="n">
         <v>59.87567480520313</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>87.36205364029937</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>153.5064939118948</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.3080652461509</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
         <v>211.1008365810345</v>
@@ -2702,7 +2702,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>128.9048595892454</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -2718,19 +2718,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>6.143937093670949</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6955818830934</v>
+        <v>6.967497332133792</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2668846021892</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>169.1516756848362</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3834017976947</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>395.4395794526591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>395.4395794526591</v>
       </c>
       <c r="E29" t="n">
-        <v>348.3031815819022</v>
+        <v>238.0300965764658</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>89.10643068470984</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.374103147909</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3325309612515</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>395.4395794526591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>7.905814553886032</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>104.8678014522144</v>
       </c>
       <c r="H30" t="n">
-        <v>47.03614615543423</v>
+        <v>59.87567480520313</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>153.5064939118948</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3080652461509</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -2936,7 +2936,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
         <v>157.8079400398083</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2964,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>164.6955818830934</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>40.71291690808459</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.74833734190508</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>169.1516756848362</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>33.43526662443297</v>
       </c>
       <c r="U31" t="n">
         <v>279.9220402367579</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4395794526591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>287.6554033985326</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>89.10643068470984</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.374103147909</v>
       </c>
       <c r="U32" t="n">
-        <v>60.64777818336968</v>
+        <v>254.3325309612515</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>188.929696240691</v>
       </c>
       <c r="X32" t="n">
-        <v>395.4395794526591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>395.4395794526591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
@@ -3122,7 +3122,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>104.8678014522144</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>85.55465257880323</v>
       </c>
       <c r="U33" t="n">
         <v>195.3080652461509</v>
@@ -3170,7 +3170,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
-        <v>76.05950150482145</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
         <v>174.5627220424961</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>121.3364666254211</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.6955818830934</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>16.74245043104114</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>169.1516756848362</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3834017976947</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9220402367579</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>348.3031815819023</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>395.4395794526592</v>
       </c>
       <c r="E35" t="n">
+        <v>259.1967508971923</v>
+      </c>
+      <c r="F35" t="n">
         <v>395.4395794526592</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>395.4395794526592</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>89.10643068470984</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>39.91843968622903</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
-        <v>113.0279148131461</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84.12967721990447</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>164.6955818830934</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.4635940724318</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3834017976947</v>
       </c>
       <c r="U37" t="n">
         <v>279.9220402367579</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="D38" t="n">
-        <v>201.5463603662444</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>89.10643068470984</v>
       </c>
       <c r="T38" t="n">
         <v>211.374103147909</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3325309612515</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>204.4465778371671</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>395.4395794526592</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,19 +3587,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>39.91843968622901</v>
       </c>
       <c r="E39" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>59.87567480520313</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>87.36205364029937</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>153.5064939118948</v>
@@ -3644,13 +3644,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>153.7192068422488</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>6.867300438547562</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>88.64925936138791</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>169.1516756848362</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3834017976947</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>222.520216916745</v>
+        <v>279.9220402367579</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>363.8200631783783</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="F41" t="n">
-        <v>395.4395794526592</v>
+        <v>84.31317885624341</v>
       </c>
       <c r="G41" t="n">
         <v>395.4395794526592</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9.657471764407106</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3325309612515</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>102.295181707262</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>104.8678014522144</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>135.2910900644619</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>18.25421243098856</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.74833734190509</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>169.1516756848362</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3834017976947</v>
       </c>
       <c r="U43" t="n">
         <v>279.9220402367579</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>19.04089799462947</v>
       </c>
     </row>
     <row r="44">
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>395.4395794526591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>127.271606669586</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>395.4395794526591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>395.4395794526591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.657471764407106</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>158.5879325529019</v>
+        <v>211.374103147909</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3325309612515</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>395.4395794526592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>53.46629685992934</v>
+        <v>70.78563946456109</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>107.8702810193205</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>87.36205364029937</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>153.5064939118948</v>
       </c>
       <c r="U45" t="n">
         <v>195.3080652461509</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6955818830934</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>88.64925936138791</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>169.1516756848362</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>91.29051601774933</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>196.8663106820431</v>
       </c>
     </row>
   </sheetData>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>272.0696073425418</v>
+        <v>830.5030036343122</v>
       </c>
       <c r="C11" t="n">
-        <v>272.0696073425418</v>
+        <v>830.5030036343122</v>
       </c>
       <c r="D11" t="n">
-        <v>272.0696073425418</v>
+        <v>431.0690849952625</v>
       </c>
       <c r="E11" t="n">
-        <v>31.63516635621273</v>
+        <v>431.0690849952625</v>
       </c>
       <c r="F11" t="n">
-        <v>31.63516635621273</v>
+        <v>431.0690849952625</v>
       </c>
       <c r="G11" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="H11" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I11" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="J11" t="n">
-        <v>124.3176641550681</v>
+        <v>124.3176641550683</v>
       </c>
       <c r="K11" t="n">
-        <v>283.7738027861272</v>
+        <v>283.7738027861274</v>
       </c>
       <c r="L11" t="n">
         <v>496.5384563867112</v>
@@ -5059,34 +5059,34 @@
         <v>1237.417597314452</v>
       </c>
       <c r="P11" t="n">
-        <v>1424.725851794087</v>
+        <v>1424.725851794088</v>
       </c>
       <c r="Q11" t="n">
-        <v>1545.876587892983</v>
+        <v>1545.876587892984</v>
       </c>
       <c r="R11" t="n">
         <v>1581.758317810637</v>
       </c>
       <c r="S11" t="n">
-        <v>1491.751822169515</v>
+        <v>1491.751822169516</v>
       </c>
       <c r="T11" t="n">
-        <v>1278.242627070617</v>
+        <v>1278.242627070618</v>
       </c>
       <c r="U11" t="n">
-        <v>1021.341080645111</v>
+        <v>1229.936922273362</v>
       </c>
       <c r="V11" t="n">
-        <v>671.5035259815915</v>
+        <v>1229.936922273362</v>
       </c>
       <c r="W11" t="n">
-        <v>671.5035259815915</v>
+        <v>1229.936922273362</v>
       </c>
       <c r="X11" t="n">
-        <v>671.5035259815915</v>
+        <v>1229.936922273362</v>
       </c>
       <c r="Y11" t="n">
-        <v>671.5035259815915</v>
+        <v>1229.936922273362</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>678.3876429882112</v>
+        <v>544.3925717371569</v>
       </c>
       <c r="C12" t="n">
         <v>544.3925717371569</v>
@@ -5114,10 +5114,10 @@
         <v>92.11564595742801</v>
       </c>
       <c r="H12" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I12" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="J12" t="n">
         <v>139.0804349760315</v>
@@ -5141,31 +5141,31 @@
         <v>1183.995005415086</v>
       </c>
       <c r="Q12" t="n">
-        <v>1575.480189073218</v>
+        <v>1575.480189073219</v>
       </c>
       <c r="R12" t="n">
         <v>1581.758317810637</v>
       </c>
       <c r="S12" t="n">
-        <v>1493.513819184072</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="T12" t="n">
-        <v>1338.456754626602</v>
+        <v>1426.701253253168</v>
       </c>
       <c r="U12" t="n">
-        <v>1141.175880640591</v>
+        <v>1229.420379267156</v>
       </c>
       <c r="V12" t="n">
-        <v>927.4643536336248</v>
+        <v>1229.420379267156</v>
       </c>
       <c r="W12" t="n">
-        <v>927.4643536336248</v>
+        <v>1020.423545870021</v>
       </c>
       <c r="X12" t="n">
-        <v>927.4643536336248</v>
+        <v>844.0975640089135</v>
       </c>
       <c r="Y12" t="n">
-        <v>818.6906756237978</v>
+        <v>684.6956043727436</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1085.352726357999</v>
+        <v>433.9569670405337</v>
       </c>
       <c r="C13" t="n">
-        <v>914.2593539197157</v>
+        <v>262.8635946022502</v>
       </c>
       <c r="D13" t="n">
-        <v>754.7647092426257</v>
+        <v>262.8635946022502</v>
       </c>
       <c r="E13" t="n">
-        <v>593.8538941109452</v>
+        <v>262.8635946022502</v>
       </c>
       <c r="F13" t="n">
-        <v>429.2227682215366</v>
+        <v>262.8635946022502</v>
       </c>
       <c r="G13" t="n">
-        <v>262.8635946022503</v>
+        <v>262.8635946022502</v>
       </c>
       <c r="H13" t="n">
         <v>121.1798727818571</v>
       </c>
       <c r="I13" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="J13" t="n">
-        <v>42.47154563642205</v>
+        <v>107.4729092677585</v>
       </c>
       <c r="K13" t="n">
-        <v>92.22643314969316</v>
+        <v>363.5079903667437</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9865184628778</v>
+        <v>753.2680756799283</v>
       </c>
       <c r="M13" t="n">
-        <v>744.4318243872023</v>
+        <v>834.4880921894892</v>
       </c>
       <c r="N13" t="n">
-        <v>1135.917008045335</v>
+        <v>1009.643047839498</v>
       </c>
       <c r="O13" t="n">
-        <v>1518.940360899326</v>
+        <v>1392.666400693489</v>
       </c>
       <c r="P13" t="n">
-        <v>1569.362022755965</v>
+        <v>1443.088062550128</v>
       </c>
       <c r="Q13" t="n">
         <v>1581.758317810637</v>
       </c>
       <c r="R13" t="n">
-        <v>1536.557977061237</v>
+        <v>1536.557977061238</v>
       </c>
       <c r="S13" t="n">
         <v>1365.697698591706</v>
       </c>
       <c r="T13" t="n">
-        <v>1129.956888695044</v>
+        <v>1129.956888695045</v>
       </c>
       <c r="U13" t="n">
-        <v>1085.352726357999</v>
+        <v>847.2073531023601</v>
       </c>
       <c r="V13" t="n">
-        <v>1085.352726357999</v>
+        <v>573.321608041882</v>
       </c>
       <c r="W13" t="n">
-        <v>1085.352726357999</v>
+        <v>573.321608041882</v>
       </c>
       <c r="X13" t="n">
-        <v>1085.352726357999</v>
+        <v>433.9569670405337</v>
       </c>
       <c r="Y13" t="n">
-        <v>1085.352726357999</v>
+        <v>433.9569670405337</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>287.74322511676</v>
+        <v>431.0690849952625</v>
       </c>
       <c r="C14" t="n">
-        <v>287.74322511676</v>
+        <v>431.0690849952625</v>
       </c>
       <c r="D14" t="n">
-        <v>287.74322511676</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="E14" t="n">
-        <v>287.74322511676</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="F14" t="n">
-        <v>287.74322511676</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="G14" t="n">
-        <v>287.74322511676</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="H14" t="n">
-        <v>41.39018834046233</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I14" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="J14" t="n">
-        <v>124.3176641550682</v>
+        <v>124.3176641550683</v>
       </c>
       <c r="K14" t="n">
         <v>283.7738027861274</v>
       </c>
       <c r="L14" t="n">
-        <v>496.5384563867113</v>
+        <v>496.5384563867111</v>
       </c>
       <c r="M14" t="n">
         <v>746.1062510420657</v>
@@ -5299,31 +5299,31 @@
         <v>1424.725851794088</v>
       </c>
       <c r="Q14" t="n">
-        <v>1545.876587892983</v>
+        <v>1545.876587892984</v>
       </c>
       <c r="R14" t="n">
         <v>1581.758317810637</v>
       </c>
       <c r="S14" t="n">
-        <v>1491.751822169515</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="T14" t="n">
-        <v>1278.242627070617</v>
+        <v>1368.249122711739</v>
       </c>
       <c r="U14" t="n">
-        <v>1021.341080645111</v>
+        <v>1111.347576286232</v>
       </c>
       <c r="V14" t="n">
-        <v>671.5035259815915</v>
+        <v>1111.347576286232</v>
       </c>
       <c r="W14" t="n">
-        <v>287.74322511676</v>
+        <v>727.5872754214008</v>
       </c>
       <c r="X14" t="n">
-        <v>287.74322511676</v>
+        <v>727.5872754214008</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.74322511676</v>
+        <v>431.0690849952625</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>678.3876429882112</v>
+        <v>321.5683417825954</v>
       </c>
       <c r="C15" t="n">
-        <v>544.3925717371569</v>
+        <v>321.5683417825954</v>
       </c>
       <c r="D15" t="n">
-        <v>427.4954139565493</v>
+        <v>321.5683417825954</v>
       </c>
       <c r="E15" t="n">
-        <v>307.0025979488773</v>
+        <v>201.0755257749234</v>
       </c>
       <c r="F15" t="n">
-        <v>198.0427181313819</v>
+        <v>92.11564595742801</v>
       </c>
       <c r="G15" t="n">
         <v>92.11564595742801</v>
       </c>
       <c r="H15" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I15" t="n">
-        <v>47.1714243280969</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="J15" t="n">
-        <v>338.4196610354724</v>
+        <v>322.8834030635882</v>
       </c>
       <c r="K15" t="n">
-        <v>451.3938775935804</v>
+        <v>435.8576196216963</v>
       </c>
       <c r="L15" t="n">
-        <v>622.0622828080578</v>
+        <v>606.5260248361737</v>
       </c>
       <c r="M15" t="n">
-        <v>829.0637933945022</v>
+        <v>944.3396086428864</v>
       </c>
       <c r="N15" t="n">
-        <v>1047.379519204829</v>
+        <v>1162.655334453213</v>
       </c>
       <c r="O15" t="n">
-        <v>1238.096739826769</v>
+        <v>1353.372555075154</v>
       </c>
       <c r="P15" t="n">
-        <v>1383.334231474527</v>
+        <v>1498.610046722911</v>
       </c>
       <c r="Q15" t="n">
-        <v>1487.510472596237</v>
+        <v>1575.480189073219</v>
       </c>
       <c r="R15" t="n">
         <v>1581.758317810637</v>
@@ -5387,22 +5387,22 @@
         <v>1493.513819184072</v>
       </c>
       <c r="T15" t="n">
-        <v>1338.456754626602</v>
+        <v>1338.456754626603</v>
       </c>
       <c r="U15" t="n">
-        <v>1338.456754626602</v>
+        <v>1224.544011186097</v>
       </c>
       <c r="V15" t="n">
-        <v>1338.456754626602</v>
+        <v>1010.832484179131</v>
       </c>
       <c r="W15" t="n">
-        <v>1154.418617121075</v>
+        <v>797.5993159154593</v>
       </c>
       <c r="X15" t="n">
-        <v>978.0926352599678</v>
+        <v>621.2733340543521</v>
       </c>
       <c r="Y15" t="n">
-        <v>818.6906756237978</v>
+        <v>461.8713744181821</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>914.2593539197157</v>
+        <v>445.3056433483558</v>
       </c>
       <c r="C16" t="n">
-        <v>914.2593539197157</v>
+        <v>445.3056433483558</v>
       </c>
       <c r="D16" t="n">
-        <v>754.7647092426257</v>
+        <v>285.8109986712658</v>
       </c>
       <c r="E16" t="n">
-        <v>593.8538941109452</v>
+        <v>285.8109986712658</v>
       </c>
       <c r="F16" t="n">
-        <v>429.2227682215366</v>
+        <v>121.1798727818571</v>
       </c>
       <c r="G16" t="n">
-        <v>262.8635946022503</v>
+        <v>121.1798727818571</v>
       </c>
       <c r="H16" t="n">
         <v>121.1798727818571</v>
       </c>
       <c r="I16" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="J16" t="n">
-        <v>42.47154563642205</v>
+        <v>42.47154563642206</v>
       </c>
       <c r="K16" t="n">
         <v>298.5066267354073</v>
@@ -5445,43 +5445,43 @@
         <v>374.2876008135689</v>
       </c>
       <c r="M16" t="n">
-        <v>666.2744803218438</v>
+        <v>455.5076173231298</v>
       </c>
       <c r="N16" t="n">
-        <v>748.7455643663793</v>
+        <v>748.7455643663798</v>
       </c>
       <c r="O16" t="n">
-        <v>1131.76891722037</v>
+        <v>1131.768917220371</v>
       </c>
       <c r="P16" t="n">
-        <v>1443.088062550127</v>
+        <v>1443.088062550128</v>
       </c>
       <c r="Q16" t="n">
         <v>1581.758317810637</v>
       </c>
       <c r="R16" t="n">
-        <v>1536.557977061237</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="S16" t="n">
-        <v>1536.557977061237</v>
+        <v>1410.898039341105</v>
       </c>
       <c r="T16" t="n">
-        <v>1536.557977061237</v>
+        <v>1175.157229444444</v>
       </c>
       <c r="U16" t="n">
-        <v>1375.844805374238</v>
+        <v>998.2610528999594</v>
       </c>
       <c r="V16" t="n">
-        <v>1101.95906031376</v>
+        <v>724.3753078394814</v>
       </c>
       <c r="W16" t="n">
-        <v>1101.95906031376</v>
+        <v>445.3056433483558</v>
       </c>
       <c r="X16" t="n">
-        <v>1101.95906031376</v>
+        <v>445.3056433483558</v>
       </c>
       <c r="Y16" t="n">
-        <v>1101.95906031376</v>
+        <v>445.3056433483558</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1530.252957791482</v>
+        <v>431.0690849952624</v>
       </c>
       <c r="C17" t="n">
-        <v>1530.252957791482</v>
+        <v>431.0690849952624</v>
       </c>
       <c r="D17" t="n">
-        <v>1530.252957791482</v>
+        <v>431.0690849952624</v>
       </c>
       <c r="E17" t="n">
-        <v>1130.819039152433</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="F17" t="n">
-        <v>731.3851205133833</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="G17" t="n">
-        <v>331.9512018743337</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="H17" t="n">
-        <v>41.39018834046233</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="I17" t="n">
         <v>31.63516635621273</v>
@@ -5521,10 +5521,10 @@
         <v>283.7738027861273</v>
       </c>
       <c r="L17" t="n">
-        <v>496.5384563867108</v>
+        <v>496.5384563867111</v>
       </c>
       <c r="M17" t="n">
-        <v>746.1062510420654</v>
+        <v>746.1062510420655</v>
       </c>
       <c r="N17" t="n">
         <v>1001.580905923467</v>
@@ -5533,7 +5533,7 @@
         <v>1237.417597314452</v>
       </c>
       <c r="P17" t="n">
-        <v>1424.725851794088</v>
+        <v>1424.725851794087</v>
       </c>
       <c r="Q17" t="n">
         <v>1545.876587892983</v>
@@ -5548,19 +5548,19 @@
         <v>1581.758317810637</v>
       </c>
       <c r="U17" t="n">
-        <v>1530.252957791482</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="V17" t="n">
-        <v>1530.252957791482</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="W17" t="n">
-        <v>1530.252957791482</v>
+        <v>1197.998016945805</v>
       </c>
       <c r="X17" t="n">
-        <v>1530.252957791482</v>
+        <v>1197.998016945805</v>
       </c>
       <c r="Y17" t="n">
-        <v>1530.252957791482</v>
+        <v>798.5640983067556</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>678.3876429882112</v>
+        <v>572.4605708142574</v>
       </c>
       <c r="C18" t="n">
-        <v>544.3925717371569</v>
+        <v>438.465499563203</v>
       </c>
       <c r="D18" t="n">
-        <v>427.4954139565493</v>
+        <v>321.5683417825954</v>
       </c>
       <c r="E18" t="n">
-        <v>307.0025979488773</v>
+        <v>201.0755257749234</v>
       </c>
       <c r="F18" t="n">
-        <v>198.0427181313819</v>
+        <v>92.11564595742801</v>
       </c>
       <c r="G18" t="n">
         <v>92.11564595742801</v>
@@ -5591,28 +5591,28 @@
         <v>31.63516635621273</v>
       </c>
       <c r="I18" t="n">
-        <v>31.63516635621273</v>
+        <v>47.1714243280969</v>
       </c>
       <c r="J18" t="n">
-        <v>322.8834030635882</v>
+        <v>338.4196610354724</v>
       </c>
       <c r="K18" t="n">
-        <v>435.8576196216962</v>
+        <v>451.3938775935804</v>
       </c>
       <c r="L18" t="n">
-        <v>606.5260248361736</v>
+        <v>622.0622828080578</v>
       </c>
       <c r="M18" t="n">
-        <v>813.527535422618</v>
+        <v>829.0637933945022</v>
       </c>
       <c r="N18" t="n">
-        <v>1031.843261232945</v>
+        <v>1047.379519204829</v>
       </c>
       <c r="O18" t="n">
-        <v>1222.560481854885</v>
+        <v>1238.096739826769</v>
       </c>
       <c r="P18" t="n">
-        <v>1367.797973502642</v>
+        <v>1383.334231474527</v>
       </c>
       <c r="Q18" t="n">
         <v>1487.510472596237</v>
@@ -5621,25 +5621,25 @@
         <v>1581.758317810637</v>
       </c>
       <c r="S18" t="n">
-        <v>1581.758317810637</v>
+        <v>1493.513819184072</v>
       </c>
       <c r="T18" t="n">
-        <v>1581.758317810637</v>
+        <v>1338.456754626602</v>
       </c>
       <c r="U18" t="n">
-        <v>1384.477443824625</v>
+        <v>1261.724713210792</v>
       </c>
       <c r="V18" t="n">
-        <v>1170.765916817659</v>
+        <v>1261.724713210792</v>
       </c>
       <c r="W18" t="n">
-        <v>1154.418617121075</v>
+        <v>1048.491544947121</v>
       </c>
       <c r="X18" t="n">
-        <v>978.0926352599678</v>
+        <v>872.165563086014</v>
       </c>
       <c r="Y18" t="n">
-        <v>818.6906756237978</v>
+        <v>712.763603449844</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.1798727818571</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="C19" t="n">
-        <v>121.1798727818571</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="D19" t="n">
-        <v>121.1798727818571</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="E19" t="n">
-        <v>121.1798727818571</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="F19" t="n">
-        <v>121.1798727818571</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="G19" t="n">
-        <v>121.1798727818571</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="H19" t="n">
-        <v>121.1798727818571</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="I19" t="n">
         <v>31.63516635621273</v>
@@ -5676,16 +5676,16 @@
         <v>107.4729092677584</v>
       </c>
       <c r="K19" t="n">
-        <v>157.2277967810296</v>
+        <v>363.5079903667437</v>
       </c>
       <c r="L19" t="n">
-        <v>546.9878820942142</v>
+        <v>439.2889644449053</v>
       </c>
       <c r="M19" t="n">
-        <v>744.4318243872023</v>
+        <v>830.7741481030378</v>
       </c>
       <c r="N19" t="n">
-        <v>1135.917008045335</v>
+        <v>1222.25933176117</v>
       </c>
       <c r="O19" t="n">
         <v>1518.940360899326</v>
@@ -5697,28 +5697,28 @@
         <v>1581.758317810637</v>
       </c>
       <c r="R19" t="n">
-        <v>1536.557977061237</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="S19" t="n">
-        <v>1365.697698591706</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="T19" t="n">
-        <v>1129.956888695044</v>
+        <v>1346.017507913975</v>
       </c>
       <c r="U19" t="n">
-        <v>847.2073531023597</v>
+        <v>1063.26797232129</v>
       </c>
       <c r="V19" t="n">
-        <v>847.2073531023597</v>
+        <v>789.3822272608124</v>
       </c>
       <c r="W19" t="n">
-        <v>568.137688611234</v>
+        <v>510.3125627696868</v>
       </c>
       <c r="X19" t="n">
-        <v>329.7938264709174</v>
+        <v>271.9687006293702</v>
       </c>
       <c r="Y19" t="n">
-        <v>121.1798727818571</v>
+        <v>47.23300201813487</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1520.497935807233</v>
+        <v>1121.064017168184</v>
       </c>
       <c r="C20" t="n">
-        <v>1520.497935807233</v>
+        <v>721.6300985291339</v>
       </c>
       <c r="D20" t="n">
-        <v>1121.064017168183</v>
+        <v>721.6300985291339</v>
       </c>
       <c r="E20" t="n">
-        <v>721.6300985291336</v>
+        <v>721.6300985291339</v>
       </c>
       <c r="F20" t="n">
         <v>322.1961798900841</v>
@@ -5746,34 +5746,34 @@
         <v>322.1961798900841</v>
       </c>
       <c r="H20" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I20" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="J20" t="n">
         <v>124.3176641550681</v>
       </c>
       <c r="K20" t="n">
-        <v>283.7738027861274</v>
+        <v>283.7738027861272</v>
       </c>
       <c r="L20" t="n">
-        <v>496.5384563867115</v>
+        <v>496.5384563867112</v>
       </c>
       <c r="M20" t="n">
         <v>746.1062510420658</v>
       </c>
       <c r="N20" t="n">
-        <v>1001.580905923467</v>
+        <v>1001.580905923468</v>
       </c>
       <c r="O20" t="n">
         <v>1237.417597314452</v>
       </c>
       <c r="P20" t="n">
-        <v>1424.725851794087</v>
+        <v>1424.725851794088</v>
       </c>
       <c r="Q20" t="n">
-        <v>1545.876587892983</v>
+        <v>1545.876587892984</v>
       </c>
       <c r="R20" t="n">
         <v>1581.758317810637</v>
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>678.3876429882112</v>
+        <v>572.4605708142574</v>
       </c>
       <c r="C21" t="n">
-        <v>544.3925717371569</v>
+        <v>438.465499563203</v>
       </c>
       <c r="D21" t="n">
-        <v>427.4954139565493</v>
+        <v>321.5683417825954</v>
       </c>
       <c r="E21" t="n">
-        <v>307.0025979488773</v>
+        <v>201.0755257749234</v>
       </c>
       <c r="F21" t="n">
-        <v>198.0427181313819</v>
+        <v>92.11564595742801</v>
       </c>
       <c r="G21" t="n">
         <v>92.11564595742801</v>
       </c>
       <c r="H21" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I21" t="n">
-        <v>47.17142432809689</v>
+        <v>47.1714243280969</v>
       </c>
       <c r="J21" t="n">
-        <v>338.4196610354722</v>
+        <v>338.4196610354724</v>
       </c>
       <c r="K21" t="n">
-        <v>451.3938775935803</v>
+        <v>451.3938775935804</v>
       </c>
       <c r="L21" t="n">
-        <v>622.0622828080577</v>
+        <v>622.0622828080578</v>
       </c>
       <c r="M21" t="n">
-        <v>829.063793394502</v>
+        <v>829.0637933945022</v>
       </c>
       <c r="N21" t="n">
         <v>1047.379519204829</v>
@@ -5849,7 +5849,7 @@
         <v>1238.096739826769</v>
       </c>
       <c r="P21" t="n">
-        <v>1383.334231474526</v>
+        <v>1383.334231474527</v>
       </c>
       <c r="Q21" t="n">
         <v>1487.510472596237</v>
@@ -5861,22 +5861,22 @@
         <v>1493.513819184072</v>
       </c>
       <c r="T21" t="n">
-        <v>1493.513819184072</v>
+        <v>1338.456754626603</v>
       </c>
       <c r="U21" t="n">
-        <v>1296.23294519806</v>
+        <v>1338.456754626603</v>
       </c>
       <c r="V21" t="n">
-        <v>1082.521418191094</v>
+        <v>1261.724713210792</v>
       </c>
       <c r="W21" t="n">
-        <v>869.288249927423</v>
+        <v>1048.491544947121</v>
       </c>
       <c r="X21" t="n">
-        <v>869.288249927423</v>
+        <v>872.165563086014</v>
       </c>
       <c r="Y21" t="n">
-        <v>709.886290291253</v>
+        <v>712.763603449844</v>
       </c>
     </row>
     <row r="22">
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.3822272608124</v>
+        <v>593.8955491924655</v>
       </c>
       <c r="C22" t="n">
-        <v>618.2888548225289</v>
+        <v>422.802176754182</v>
       </c>
       <c r="D22" t="n">
-        <v>458.794210145439</v>
+        <v>263.307532077092</v>
       </c>
       <c r="E22" t="n">
-        <v>458.794210145439</v>
+        <v>263.307532077092</v>
       </c>
       <c r="F22" t="n">
-        <v>429.2227682215366</v>
+        <v>98.67640618768331</v>
       </c>
       <c r="G22" t="n">
-        <v>262.8635946022503</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="H22" t="n">
-        <v>121.1798727818571</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I22" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="J22" t="n">
-        <v>42.47154563642204</v>
+        <v>107.4729092677584</v>
       </c>
       <c r="K22" t="n">
-        <v>92.22643314969314</v>
+        <v>363.5079903667437</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9865184628778</v>
+        <v>753.2680756799283</v>
       </c>
       <c r="M22" t="n">
-        <v>744.4318243872023</v>
+        <v>1059.506583805943</v>
       </c>
       <c r="N22" t="n">
-        <v>1135.917008045335</v>
+        <v>1450.991767464076</v>
       </c>
       <c r="O22" t="n">
         <v>1518.940360899326</v>
@@ -5940,22 +5940,22 @@
         <v>1581.758317810637</v>
       </c>
       <c r="T22" t="n">
-        <v>1346.017507913975</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="U22" t="n">
-        <v>1063.26797232129</v>
+        <v>1299.008782217952</v>
       </c>
       <c r="V22" t="n">
-        <v>789.3822272608124</v>
+        <v>1299.008782217952</v>
       </c>
       <c r="W22" t="n">
-        <v>789.3822272608124</v>
+        <v>1019.939117726826</v>
       </c>
       <c r="X22" t="n">
-        <v>789.3822272608124</v>
+        <v>781.5952555865099</v>
       </c>
       <c r="Y22" t="n">
-        <v>789.3822272608124</v>
+        <v>781.5952555865099</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>721.6300985291336</v>
+        <v>1229.936922273362</v>
       </c>
       <c r="C23" t="n">
-        <v>721.6300985291336</v>
+        <v>1229.936922273362</v>
       </c>
       <c r="D23" t="n">
-        <v>721.6300985291336</v>
+        <v>830.5030036343122</v>
       </c>
       <c r="E23" t="n">
-        <v>721.6300985291336</v>
+        <v>830.5030036343122</v>
       </c>
       <c r="F23" t="n">
-        <v>322.1961798900841</v>
+        <v>431.0690849952625</v>
       </c>
       <c r="G23" t="n">
-        <v>322.1961798900841</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="H23" t="n">
-        <v>31.63516635621272</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I23" t="n">
-        <v>31.63516635621272</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="J23" t="n">
-        <v>124.3176641550681</v>
+        <v>124.3176641550685</v>
       </c>
       <c r="K23" t="n">
-        <v>283.7738027861271</v>
+        <v>283.7738027861276</v>
       </c>
       <c r="L23" t="n">
-        <v>496.5384563867111</v>
+        <v>496.5384563867113</v>
       </c>
       <c r="M23" t="n">
-        <v>746.1062510420654</v>
+        <v>746.1062510420657</v>
       </c>
       <c r="N23" t="n">
         <v>1001.580905923467</v>
@@ -6007,34 +6007,34 @@
         <v>1237.417597314452</v>
       </c>
       <c r="P23" t="n">
-        <v>1424.725851794087</v>
+        <v>1424.725851794088</v>
       </c>
       <c r="Q23" t="n">
-        <v>1545.876587892983</v>
+        <v>1545.876587892984</v>
       </c>
       <c r="R23" t="n">
-        <v>1581.758317810636</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="S23" t="n">
-        <v>1491.751822169515</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="T23" t="n">
-        <v>1491.751822169515</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="U23" t="n">
-        <v>1491.751822169515</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="V23" t="n">
-        <v>1491.751822169515</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="W23" t="n">
-        <v>1491.751822169515</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="X23" t="n">
-        <v>1491.751822169515</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="Y23" t="n">
-        <v>1121.064017168183</v>
+        <v>1229.936922273362</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>678.3876429882112</v>
+        <v>326.4447098636552</v>
       </c>
       <c r="C24" t="n">
-        <v>544.3925717371569</v>
+        <v>192.4496386126009</v>
       </c>
       <c r="D24" t="n">
-        <v>427.4954139565493</v>
+        <v>192.4496386126009</v>
       </c>
       <c r="E24" t="n">
-        <v>307.0025979488773</v>
+        <v>71.95682260492893</v>
       </c>
       <c r="F24" t="n">
-        <v>198.0427181313819</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="G24" t="n">
-        <v>92.115645957428</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="H24" t="n">
-        <v>31.63516635621272</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I24" t="n">
-        <v>31.63516635621272</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="J24" t="n">
-        <v>87.21479270685029</v>
+        <v>322.8834030635881</v>
       </c>
       <c r="K24" t="n">
-        <v>478.6999763649827</v>
+        <v>566.669692841965</v>
       </c>
       <c r="L24" t="n">
-        <v>649.3683815794601</v>
+        <v>737.3380980564424</v>
       </c>
       <c r="M24" t="n">
-        <v>856.3698921659044</v>
+        <v>944.3396086428867</v>
       </c>
       <c r="N24" t="n">
-        <v>1074.685617976231</v>
+        <v>1162.655334453213</v>
       </c>
       <c r="O24" t="n">
-        <v>1265.402838598171</v>
+        <v>1353.372555075154</v>
       </c>
       <c r="P24" t="n">
-        <v>1410.640330245929</v>
+        <v>1498.610046722911</v>
       </c>
       <c r="Q24" t="n">
-        <v>1487.510472596236</v>
+        <v>1575.480189073219</v>
       </c>
       <c r="R24" t="n">
-        <v>1581.758317810636</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="S24" t="n">
-        <v>1581.758317810636</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="T24" t="n">
-        <v>1426.701253253167</v>
+        <v>1426.701253253168</v>
       </c>
       <c r="U24" t="n">
-        <v>1426.701253253167</v>
+        <v>1229.420379267156</v>
       </c>
       <c r="V24" t="n">
-        <v>1212.9897262462</v>
+        <v>1015.70885226019</v>
       </c>
       <c r="W24" t="n">
-        <v>1154.418617121075</v>
+        <v>802.475683996519</v>
       </c>
       <c r="X24" t="n">
-        <v>978.0926352599678</v>
+        <v>626.1497021354119</v>
       </c>
       <c r="Y24" t="n">
-        <v>818.6906756237978</v>
+        <v>466.7477424992419</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>197.994339975499</v>
+        <v>712.0776686928922</v>
       </c>
       <c r="C25" t="n">
-        <v>197.994339975499</v>
+        <v>540.9842962546087</v>
       </c>
       <c r="D25" t="n">
-        <v>197.994339975499</v>
+        <v>523.5362809965884</v>
       </c>
       <c r="E25" t="n">
-        <v>197.994339975499</v>
+        <v>362.6254658649078</v>
       </c>
       <c r="F25" t="n">
-        <v>197.994339975499</v>
+        <v>197.9943399754991</v>
       </c>
       <c r="G25" t="n">
-        <v>31.63516635621272</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="H25" t="n">
-        <v>31.63516635621272</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I25" t="n">
-        <v>31.63516635621272</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="J25" t="n">
-        <v>107.4729092677584</v>
+        <v>42.47154563642205</v>
       </c>
       <c r="K25" t="n">
-        <v>363.5079903667436</v>
+        <v>92.22643314969315</v>
       </c>
       <c r="L25" t="n">
-        <v>753.2680756799282</v>
+        <v>407.1239166746923</v>
       </c>
       <c r="M25" t="n">
-        <v>927.1719637949616</v>
+        <v>798.6091003328249</v>
       </c>
       <c r="N25" t="n">
-        <v>1009.643047839497</v>
+        <v>1190.094283990958</v>
       </c>
       <c r="O25" t="n">
-        <v>1392.666400693488</v>
+        <v>1258.042877426208</v>
       </c>
       <c r="P25" t="n">
-        <v>1443.088062550127</v>
+        <v>1569.362022755965</v>
       </c>
       <c r="Q25" t="n">
-        <v>1581.758317810636</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="R25" t="n">
-        <v>1536.557977061237</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="S25" t="n">
-        <v>1365.697698591705</v>
+        <v>1410.898039341105</v>
       </c>
       <c r="T25" t="n">
-        <v>1129.956888695044</v>
+        <v>1175.157229444444</v>
       </c>
       <c r="U25" t="n">
-        <v>847.2073531023592</v>
+        <v>1175.157229444444</v>
       </c>
       <c r="V25" t="n">
-        <v>573.3216080418811</v>
+        <v>1175.157229444444</v>
       </c>
       <c r="W25" t="n">
-        <v>436.3382021158156</v>
+        <v>1175.157229444444</v>
       </c>
       <c r="X25" t="n">
-        <v>197.994339975499</v>
+        <v>936.8133673041275</v>
       </c>
       <c r="Y25" t="n">
-        <v>197.994339975499</v>
+        <v>712.0776686928922</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>451.6560562401277</v>
+        <v>840.2580256185618</v>
       </c>
       <c r="C26" t="n">
-        <v>451.6560562401277</v>
+        <v>840.2580256185618</v>
       </c>
       <c r="D26" t="n">
-        <v>52.22213760107809</v>
+        <v>840.2580256185618</v>
       </c>
       <c r="E26" t="n">
-        <v>52.22213760107809</v>
+        <v>440.8241069795121</v>
       </c>
       <c r="F26" t="n">
-        <v>52.22213760107809</v>
+        <v>41.39018834046234</v>
       </c>
       <c r="G26" t="n">
-        <v>52.22213760107809</v>
+        <v>41.39018834046234</v>
       </c>
       <c r="H26" t="n">
-        <v>31.63516635621273</v>
+        <v>41.39018834046234</v>
       </c>
       <c r="I26" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="J26" t="n">
-        <v>124.3176641550681</v>
+        <v>124.3176641550685</v>
       </c>
       <c r="K26" t="n">
-        <v>283.7738027861272</v>
+        <v>283.7738027861276</v>
       </c>
       <c r="L26" t="n">
-        <v>496.538456386711</v>
+        <v>496.5384563867113</v>
       </c>
       <c r="M26" t="n">
-        <v>746.1062510420654</v>
+        <v>746.1062510420657</v>
       </c>
       <c r="N26" t="n">
         <v>1001.580905923467</v>
@@ -6247,31 +6247,31 @@
         <v>1424.725851794088</v>
       </c>
       <c r="Q26" t="n">
-        <v>1545.876587892983</v>
+        <v>1545.876587892984</v>
       </c>
       <c r="R26" t="n">
         <v>1581.758317810637</v>
       </c>
       <c r="S26" t="n">
-        <v>1491.751822169515</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="T26" t="n">
-        <v>1491.751822169515</v>
+        <v>1480.9198729089</v>
       </c>
       <c r="U26" t="n">
-        <v>1234.850275744009</v>
+        <v>1224.018326483393</v>
       </c>
       <c r="V26" t="n">
-        <v>1234.850275744009</v>
+        <v>1224.018326483393</v>
       </c>
       <c r="W26" t="n">
-        <v>851.0899748791774</v>
+        <v>840.2580256185618</v>
       </c>
       <c r="X26" t="n">
-        <v>851.0899748791774</v>
+        <v>840.2580256185618</v>
       </c>
       <c r="Y26" t="n">
-        <v>851.0899748791774</v>
+        <v>840.2580256185618</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>678.3876429882112</v>
+        <v>326.4447098636552</v>
       </c>
       <c r="C27" t="n">
-        <v>544.3925717371569</v>
+        <v>326.4447098636552</v>
       </c>
       <c r="D27" t="n">
-        <v>427.4954139565493</v>
+        <v>326.4447098636552</v>
       </c>
       <c r="E27" t="n">
-        <v>307.0025979488773</v>
+        <v>205.9518938559832</v>
       </c>
       <c r="F27" t="n">
-        <v>198.0427181313819</v>
+        <v>96.99201403848781</v>
       </c>
       <c r="G27" t="n">
         <v>92.11564595742801</v>
       </c>
       <c r="H27" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I27" t="n">
-        <v>47.17142432809689</v>
+        <v>47.1714243280969</v>
       </c>
       <c r="J27" t="n">
-        <v>94.75125706083907</v>
+        <v>338.4196610354723</v>
       </c>
       <c r="K27" t="n">
-        <v>207.7254736189471</v>
+        <v>451.3938775935804</v>
       </c>
       <c r="L27" t="n">
-        <v>378.3938788334245</v>
+        <v>622.0622828080577</v>
       </c>
       <c r="M27" t="n">
-        <v>585.3953894198688</v>
+        <v>829.063793394502</v>
       </c>
       <c r="N27" t="n">
-        <v>803.7111152301954</v>
+        <v>1047.379519204829</v>
       </c>
       <c r="O27" t="n">
-        <v>994.4283358521359</v>
+        <v>1238.096739826769</v>
       </c>
       <c r="P27" t="n">
-        <v>1139.665827499893</v>
+        <v>1383.334231474526</v>
       </c>
       <c r="Q27" t="n">
         <v>1487.510472596237</v>
@@ -6332,25 +6332,25 @@
         <v>1581.758317810637</v>
       </c>
       <c r="S27" t="n">
-        <v>1493.513819184072</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="T27" t="n">
-        <v>1338.456754626602</v>
+        <v>1426.701253253168</v>
       </c>
       <c r="U27" t="n">
-        <v>1338.456754626602</v>
+        <v>1229.420379267156</v>
       </c>
       <c r="V27" t="n">
-        <v>1338.456754626602</v>
+        <v>1015.70885226019</v>
       </c>
       <c r="W27" t="n">
-        <v>1125.223586362931</v>
+        <v>802.475683996519</v>
       </c>
       <c r="X27" t="n">
-        <v>948.8976045018235</v>
+        <v>626.1497021354119</v>
       </c>
       <c r="Y27" t="n">
-        <v>818.6906756237978</v>
+        <v>466.7477424992419</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>841.1032018649885</v>
+        <v>209.7664148875607</v>
       </c>
       <c r="C28" t="n">
-        <v>670.009829426705</v>
+        <v>38.67304244927718</v>
       </c>
       <c r="D28" t="n">
-        <v>510.515184749615</v>
+        <v>38.67304244927718</v>
       </c>
       <c r="E28" t="n">
-        <v>504.3091876853009</v>
+        <v>38.67304244927718</v>
       </c>
       <c r="F28" t="n">
-        <v>339.6780617958922</v>
+        <v>38.67304244927718</v>
       </c>
       <c r="G28" t="n">
-        <v>173.3188881766059</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="H28" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I28" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="J28" t="n">
-        <v>42.47154563642204</v>
+        <v>42.47154563642205</v>
       </c>
       <c r="K28" t="n">
         <v>92.22643314969315</v>
@@ -6393,13 +6393,13 @@
         <v>481.9865184628778</v>
       </c>
       <c r="M28" t="n">
-        <v>873.4717021210104</v>
+        <v>563.2065349724387</v>
       </c>
       <c r="N28" t="n">
-        <v>1264.956885779143</v>
+        <v>875.0195245722171</v>
       </c>
       <c r="O28" t="n">
-        <v>1518.940360899326</v>
+        <v>1258.042877426208</v>
       </c>
       <c r="P28" t="n">
         <v>1569.362022755965</v>
@@ -6411,25 +6411,25 @@
         <v>1581.758317810637</v>
       </c>
       <c r="S28" t="n">
-        <v>1581.758317810637</v>
+        <v>1410.898039341105</v>
       </c>
       <c r="T28" t="n">
-        <v>1581.758317810637</v>
+        <v>1175.157229444444</v>
       </c>
       <c r="U28" t="n">
-        <v>1581.758317810637</v>
+        <v>1175.157229444444</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.872572750158</v>
+        <v>901.271484383966</v>
       </c>
       <c r="W28" t="n">
-        <v>1028.802908259033</v>
+        <v>622.2018198928404</v>
       </c>
       <c r="X28" t="n">
-        <v>1028.802908259033</v>
+        <v>622.2018198928404</v>
       </c>
       <c r="Y28" t="n">
-        <v>1028.802908259033</v>
+        <v>397.4661212816051</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1182.324399171587</v>
+        <v>671.5035259815915</v>
       </c>
       <c r="C29" t="n">
-        <v>782.8904805325374</v>
+        <v>671.5035259815915</v>
       </c>
       <c r="D29" t="n">
-        <v>383.4565618934877</v>
+        <v>272.0696073425418</v>
       </c>
       <c r="E29" t="n">
         <v>31.63516635621273</v>
@@ -6490,25 +6490,25 @@
         <v>1581.758317810637</v>
       </c>
       <c r="S29" t="n">
-        <v>1581.758317810637</v>
+        <v>1491.751822169515</v>
       </c>
       <c r="T29" t="n">
-        <v>1581.758317810637</v>
+        <v>1278.242627070617</v>
       </c>
       <c r="U29" t="n">
-        <v>1581.758317810637</v>
+        <v>1021.341080645111</v>
       </c>
       <c r="V29" t="n">
-        <v>1581.758317810637</v>
+        <v>671.5035259815915</v>
       </c>
       <c r="W29" t="n">
-        <v>1581.758317810637</v>
+        <v>671.5035259815915</v>
       </c>
       <c r="X29" t="n">
-        <v>1182.324399171587</v>
+        <v>671.5035259815915</v>
       </c>
       <c r="Y29" t="n">
-        <v>1182.324399171587</v>
+        <v>671.5035259815915</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>414.5261930981969</v>
+        <v>435.4810852231009</v>
       </c>
       <c r="C30" t="n">
-        <v>414.5261930981969</v>
+        <v>427.4954139565493</v>
       </c>
       <c r="D30" t="n">
-        <v>414.5261930981969</v>
+        <v>427.4954139565493</v>
       </c>
       <c r="E30" t="n">
-        <v>294.0333770905249</v>
+        <v>307.0025979488773</v>
       </c>
       <c r="F30" t="n">
-        <v>185.0734972730295</v>
+        <v>198.0427181313819</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1464250990756</v>
+        <v>92.11564595742801</v>
       </c>
       <c r="H30" t="n">
         <v>31.63516635621273</v>
       </c>
       <c r="I30" t="n">
-        <v>31.63516635621273</v>
+        <v>47.17142432809689</v>
       </c>
       <c r="J30" t="n">
-        <v>280.5260184360505</v>
+        <v>338.4196610354722</v>
       </c>
       <c r="K30" t="n">
-        <v>393.5002349941586</v>
+        <v>451.3938775935803</v>
       </c>
       <c r="L30" t="n">
-        <v>564.168640208636</v>
+        <v>622.0622828080577</v>
       </c>
       <c r="M30" t="n">
-        <v>771.1701507950803</v>
+        <v>829.063793394502</v>
       </c>
       <c r="N30" t="n">
-        <v>1162.655334453213</v>
+        <v>1047.379519204829</v>
       </c>
       <c r="O30" t="n">
-        <v>1353.372555075153</v>
+        <v>1238.096739826769</v>
       </c>
       <c r="P30" t="n">
-        <v>1498.610046722911</v>
+        <v>1383.334231474526</v>
       </c>
       <c r="Q30" t="n">
-        <v>1575.480189073218</v>
+        <v>1487.510472596237</v>
       </c>
       <c r="R30" t="n">
         <v>1581.758317810637</v>
@@ -6575,19 +6575,19 @@
         <v>1338.456754626602</v>
       </c>
       <c r="U30" t="n">
-        <v>1141.175880640591</v>
+        <v>1338.456754626602</v>
       </c>
       <c r="V30" t="n">
-        <v>927.4643536336248</v>
+        <v>1124.745227619636</v>
       </c>
       <c r="W30" t="n">
-        <v>714.2311853699536</v>
+        <v>911.5120593559647</v>
       </c>
       <c r="X30" t="n">
-        <v>714.2311853699536</v>
+        <v>735.1860774948575</v>
       </c>
       <c r="Y30" t="n">
-        <v>554.8292257337836</v>
+        <v>575.7841178586875</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>895.2484566049766</v>
+        <v>528.2704798155855</v>
       </c>
       <c r="C31" t="n">
-        <v>724.1550841666931</v>
+        <v>357.177107377302</v>
       </c>
       <c r="D31" t="n">
-        <v>564.660439489603</v>
+        <v>357.177107377302</v>
       </c>
       <c r="E31" t="n">
-        <v>403.7496243579225</v>
+        <v>196.2662922456215</v>
       </c>
       <c r="F31" t="n">
-        <v>239.1184984685138</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="G31" t="n">
-        <v>72.75932484922748</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="H31" t="n">
-        <v>72.75932484922748</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="I31" t="n">
         <v>31.63516635621273</v>
@@ -6624,19 +6624,19 @@
         <v>42.47154563642204</v>
       </c>
       <c r="K31" t="n">
-        <v>298.5066267354072</v>
+        <v>92.22643314969315</v>
       </c>
       <c r="L31" t="n">
-        <v>688.2667120485919</v>
+        <v>352.9466407290697</v>
       </c>
       <c r="M31" t="n">
-        <v>792.5484405276811</v>
+        <v>744.4318243872023</v>
       </c>
       <c r="N31" t="n">
-        <v>875.0195245722166</v>
+        <v>1135.917008045335</v>
       </c>
       <c r="O31" t="n">
-        <v>1258.042877426208</v>
+        <v>1518.940360899326</v>
       </c>
       <c r="P31" t="n">
         <v>1569.362022755965</v>
@@ -6645,28 +6645,28 @@
         <v>1581.758317810637</v>
       </c>
       <c r="R31" t="n">
-        <v>1536.557977061237</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="S31" t="n">
-        <v>1365.697698591706</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="T31" t="n">
-        <v>1365.697698591706</v>
+        <v>1547.9853212203</v>
       </c>
       <c r="U31" t="n">
-        <v>1082.948162999021</v>
+        <v>1265.235785627616</v>
       </c>
       <c r="V31" t="n">
-        <v>1082.948162999021</v>
+        <v>991.3500405671375</v>
       </c>
       <c r="W31" t="n">
-        <v>1082.948162999021</v>
+        <v>991.3500405671375</v>
       </c>
       <c r="X31" t="n">
-        <v>1082.948162999021</v>
+        <v>753.0061784268208</v>
       </c>
       <c r="Y31" t="n">
-        <v>1082.948162999021</v>
+        <v>528.2704798155855</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>721.6300985291336</v>
+        <v>830.5030036343122</v>
       </c>
       <c r="C32" t="n">
-        <v>721.6300985291336</v>
+        <v>830.5030036343122</v>
       </c>
       <c r="D32" t="n">
-        <v>721.6300985291336</v>
+        <v>830.5030036343122</v>
       </c>
       <c r="E32" t="n">
-        <v>721.6300985291336</v>
+        <v>431.0690849952625</v>
       </c>
       <c r="F32" t="n">
-        <v>721.6300985291336</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="G32" t="n">
-        <v>322.1961798900841</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="H32" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I32" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="J32" t="n">
-        <v>124.3176641550681</v>
+        <v>124.3176641550685</v>
       </c>
       <c r="K32" t="n">
-        <v>283.7738027861274</v>
+        <v>283.7738027861276</v>
       </c>
       <c r="L32" t="n">
-        <v>496.538456386711</v>
+        <v>496.5384563867115</v>
       </c>
       <c r="M32" t="n">
-        <v>746.1062510420654</v>
+        <v>746.1062510420659</v>
       </c>
       <c r="N32" t="n">
-        <v>1001.580905923467</v>
+        <v>1001.580905923468</v>
       </c>
       <c r="O32" t="n">
         <v>1237.417597314452</v>
       </c>
       <c r="P32" t="n">
-        <v>1424.725851794087</v>
+        <v>1424.725851794088</v>
       </c>
       <c r="Q32" t="n">
-        <v>1545.876587892983</v>
+        <v>1545.876587892984</v>
       </c>
       <c r="R32" t="n">
         <v>1581.758317810637</v>
       </c>
       <c r="S32" t="n">
-        <v>1581.758317810637</v>
+        <v>1491.751822169516</v>
       </c>
       <c r="T32" t="n">
-        <v>1581.758317810637</v>
+        <v>1278.242627070618</v>
       </c>
       <c r="U32" t="n">
-        <v>1520.497935807233</v>
+        <v>1021.341080645111</v>
       </c>
       <c r="V32" t="n">
-        <v>1520.497935807233</v>
+        <v>1021.341080645111</v>
       </c>
       <c r="W32" t="n">
-        <v>1520.497935807233</v>
+        <v>830.5030036343122</v>
       </c>
       <c r="X32" t="n">
-        <v>1121.064017168183</v>
+        <v>830.5030036343122</v>
       </c>
       <c r="Y32" t="n">
-        <v>721.6300985291336</v>
+        <v>830.5030036343122</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>617.907163386996</v>
+        <v>395.0829334324345</v>
       </c>
       <c r="C33" t="n">
-        <v>483.9120921359416</v>
+        <v>261.0878621813802</v>
       </c>
       <c r="D33" t="n">
-        <v>367.014934355334</v>
+        <v>261.0878621813802</v>
       </c>
       <c r="E33" t="n">
-        <v>246.5221183476621</v>
+        <v>140.5950461737082</v>
       </c>
       <c r="F33" t="n">
-        <v>137.5622385301666</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="G33" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="H33" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I33" t="n">
-        <v>47.17142432809689</v>
+        <v>47.1714243280969</v>
       </c>
       <c r="J33" t="n">
-        <v>94.75125706083907</v>
+        <v>338.4196610354723</v>
       </c>
       <c r="K33" t="n">
-        <v>207.7254736189471</v>
+        <v>451.3938775935804</v>
       </c>
       <c r="L33" t="n">
-        <v>378.3938788334245</v>
+        <v>622.0622828080577</v>
       </c>
       <c r="M33" t="n">
-        <v>585.3953894198688</v>
+        <v>829.063793394502</v>
       </c>
       <c r="N33" t="n">
-        <v>976.8805730780014</v>
+        <v>1047.379519204829</v>
       </c>
       <c r="O33" t="n">
-        <v>1167.597793699942</v>
+        <v>1238.096739826769</v>
       </c>
       <c r="P33" t="n">
-        <v>1312.835285347699</v>
+        <v>1383.334231474526</v>
       </c>
       <c r="Q33" t="n">
         <v>1487.510472596237</v>
@@ -6809,22 +6809,22 @@
         <v>1581.758317810637</v>
       </c>
       <c r="T33" t="n">
-        <v>1581.758317810637</v>
+        <v>1495.339476821947</v>
       </c>
       <c r="U33" t="n">
-        <v>1384.477443824625</v>
+        <v>1298.058602835936</v>
       </c>
       <c r="V33" t="n">
-        <v>1170.765916817659</v>
+        <v>1084.34707582897</v>
       </c>
       <c r="W33" t="n">
-        <v>1093.93813751986</v>
+        <v>871.1139075652984</v>
       </c>
       <c r="X33" t="n">
-        <v>917.6121556587526</v>
+        <v>694.7879257041911</v>
       </c>
       <c r="Y33" t="n">
-        <v>758.2101960225826</v>
+        <v>535.3859660680212</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>650.8325673160108</v>
+        <v>385.9992785057433</v>
       </c>
       <c r="C34" t="n">
-        <v>479.7391948777273</v>
+        <v>214.9059060674598</v>
       </c>
       <c r="D34" t="n">
-        <v>357.177107377302</v>
+        <v>214.9059060674598</v>
       </c>
       <c r="E34" t="n">
-        <v>196.2662922456215</v>
+        <v>214.9059060674598</v>
       </c>
       <c r="F34" t="n">
-        <v>31.63516635621273</v>
+        <v>214.9059060674598</v>
       </c>
       <c r="G34" t="n">
-        <v>31.63516635621273</v>
+        <v>48.54673244817349</v>
       </c>
       <c r="H34" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I34" t="n">
-        <v>31.63516635621273</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="J34" t="n">
-        <v>107.4729092677584</v>
+        <v>42.47154563642205</v>
       </c>
       <c r="K34" t="n">
-        <v>363.5079903667436</v>
+        <v>92.22643314969315</v>
       </c>
       <c r="L34" t="n">
-        <v>439.2889644449052</v>
+        <v>168.0074072278547</v>
       </c>
       <c r="M34" t="n">
-        <v>830.7741481030378</v>
+        <v>483.5343409140844</v>
       </c>
       <c r="N34" t="n">
-        <v>913.2452321475732</v>
+        <v>875.0195245722171</v>
       </c>
       <c r="O34" t="n">
-        <v>1131.76891722037</v>
+        <v>1258.042877426208</v>
       </c>
       <c r="P34" t="n">
-        <v>1443.088062550127</v>
+        <v>1569.362022755965</v>
       </c>
       <c r="Q34" t="n">
         <v>1581.758317810637</v>
@@ -6885,25 +6885,25 @@
         <v>1581.758317810637</v>
       </c>
       <c r="S34" t="n">
-        <v>1581.758317810637</v>
+        <v>1410.898039341105</v>
       </c>
       <c r="T34" t="n">
-        <v>1346.017507913975</v>
+        <v>1410.898039341105</v>
       </c>
       <c r="U34" t="n">
-        <v>1063.26797232129</v>
+        <v>1128.148503748421</v>
       </c>
       <c r="V34" t="n">
-        <v>1063.26797232129</v>
+        <v>1128.148503748421</v>
       </c>
       <c r="W34" t="n">
-        <v>1063.26797232129</v>
+        <v>849.0788392572952</v>
       </c>
       <c r="X34" t="n">
-        <v>1063.26797232129</v>
+        <v>610.7349771169786</v>
       </c>
       <c r="Y34" t="n">
-        <v>838.5322737100552</v>
+        <v>385.9992785057433</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1229.936922273362</v>
+        <v>1092.317903530466</v>
       </c>
       <c r="C35" t="n">
-        <v>1229.936922273362</v>
+        <v>1092.317903530466</v>
       </c>
       <c r="D35" t="n">
-        <v>830.5030036343122</v>
+        <v>692.8839848914163</v>
       </c>
       <c r="E35" t="n">
         <v>431.0690849952625</v>
       </c>
       <c r="F35" t="n">
-        <v>431.0690849952625</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="G35" t="n">
         <v>31.63516635621274</v>
@@ -6940,16 +6940,16 @@
         <v>124.3176641550685</v>
       </c>
       <c r="K35" t="n">
-        <v>283.7738027861278</v>
+        <v>283.7738027861276</v>
       </c>
       <c r="L35" t="n">
-        <v>496.5384563867115</v>
+        <v>496.5384563867113</v>
       </c>
       <c r="M35" t="n">
-        <v>746.1062510420659</v>
+        <v>746.1062510420657</v>
       </c>
       <c r="N35" t="n">
-        <v>1001.580905923468</v>
+        <v>1001.580905923467</v>
       </c>
       <c r="O35" t="n">
         <v>1237.417597314452</v>
@@ -6964,25 +6964,25 @@
         <v>1581.758317810637</v>
       </c>
       <c r="S35" t="n">
-        <v>1581.758317810637</v>
+        <v>1491.751822169516</v>
       </c>
       <c r="T35" t="n">
-        <v>1581.758317810637</v>
+        <v>1491.751822169516</v>
       </c>
       <c r="U35" t="n">
-        <v>1581.758317810637</v>
+        <v>1491.751822169516</v>
       </c>
       <c r="V35" t="n">
-        <v>1581.758317810637</v>
+        <v>1491.751822169516</v>
       </c>
       <c r="W35" t="n">
-        <v>1581.758317810637</v>
+        <v>1491.751822169516</v>
       </c>
       <c r="X35" t="n">
-        <v>1581.758317810637</v>
+        <v>1491.751822169516</v>
       </c>
       <c r="Y35" t="n">
-        <v>1581.758317810637</v>
+        <v>1491.751822169516</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>511.980091213042</v>
+        <v>326.4447098636552</v>
       </c>
       <c r="C36" t="n">
-        <v>377.9850199619877</v>
+        <v>192.4496386126009</v>
       </c>
       <c r="D36" t="n">
-        <v>261.0878621813802</v>
+        <v>192.4496386126009</v>
       </c>
       <c r="E36" t="n">
-        <v>140.5950461737082</v>
+        <v>71.95682260492893</v>
       </c>
       <c r="F36" t="n">
         <v>31.63516635621274</v>
@@ -7013,31 +7013,31 @@
         <v>31.63516635621274</v>
       </c>
       <c r="I36" t="n">
-        <v>31.63516635621274</v>
+        <v>47.1714243280969</v>
       </c>
       <c r="J36" t="n">
-        <v>322.8834030635881</v>
+        <v>94.75125706083907</v>
       </c>
       <c r="K36" t="n">
-        <v>435.8576196216962</v>
+        <v>207.7254736189471</v>
       </c>
       <c r="L36" t="n">
-        <v>606.5260248361735</v>
+        <v>378.3938788334245</v>
       </c>
       <c r="M36" t="n">
-        <v>813.5275354226178</v>
+        <v>585.3953894198688</v>
       </c>
       <c r="N36" t="n">
-        <v>1031.843261232944</v>
+        <v>803.7111152301954</v>
       </c>
       <c r="O36" t="n">
-        <v>1222.560481854885</v>
+        <v>994.4283358521359</v>
       </c>
       <c r="P36" t="n">
-        <v>1367.797973502642</v>
+        <v>1139.665827499893</v>
       </c>
       <c r="Q36" t="n">
-        <v>1575.480189073219</v>
+        <v>1487.510472596237</v>
       </c>
       <c r="R36" t="n">
         <v>1581.758317810637</v>
@@ -7061,7 +7061,7 @@
         <v>626.1497021354119</v>
       </c>
       <c r="Y36" t="n">
-        <v>511.980091213042</v>
+        <v>466.7477424992419</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>197.9943399754991</v>
+        <v>694.6296534348719</v>
       </c>
       <c r="C37" t="n">
-        <v>197.9943399754991</v>
+        <v>523.5362809965884</v>
       </c>
       <c r="D37" t="n">
-        <v>197.9943399754991</v>
+        <v>523.5362809965884</v>
       </c>
       <c r="E37" t="n">
-        <v>197.9943399754991</v>
+        <v>362.6254658649078</v>
       </c>
       <c r="F37" t="n">
         <v>197.9943399754991</v>
@@ -7095,25 +7095,25 @@
         <v>31.63516635621274</v>
       </c>
       <c r="J37" t="n">
-        <v>107.4729092677584</v>
+        <v>42.47154563642205</v>
       </c>
       <c r="K37" t="n">
-        <v>363.5079903667436</v>
+        <v>92.22643314969315</v>
       </c>
       <c r="L37" t="n">
-        <v>753.2680756799282</v>
+        <v>352.9466407290699</v>
       </c>
       <c r="M37" t="n">
-        <v>834.4880921894891</v>
+        <v>744.4318243872026</v>
       </c>
       <c r="N37" t="n">
-        <v>916.9591762340245</v>
+        <v>1135.917008045335</v>
       </c>
       <c r="O37" t="n">
-        <v>1131.768917220371</v>
+        <v>1518.940360899326</v>
       </c>
       <c r="P37" t="n">
-        <v>1443.088062550128</v>
+        <v>1569.362022755965</v>
       </c>
       <c r="Q37" t="n">
         <v>1581.758317810637</v>
@@ -7122,25 +7122,25 @@
         <v>1581.758317810637</v>
       </c>
       <c r="S37" t="n">
-        <v>1581.758317810637</v>
+        <v>1437.855697535453</v>
       </c>
       <c r="T37" t="n">
-        <v>1581.758317810637</v>
+        <v>1202.114887638792</v>
       </c>
       <c r="U37" t="n">
-        <v>1299.008782217952</v>
+        <v>919.3653520461072</v>
       </c>
       <c r="V37" t="n">
-        <v>1025.123037157474</v>
+        <v>919.3653520461072</v>
       </c>
       <c r="W37" t="n">
-        <v>746.0533726663484</v>
+        <v>919.3653520461072</v>
       </c>
       <c r="X37" t="n">
-        <v>507.7095105260318</v>
+        <v>919.3653520461072</v>
       </c>
       <c r="Y37" t="n">
-        <v>282.9738119147965</v>
+        <v>694.6296534348719</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.2173485443384</v>
+        <v>431.0690849952625</v>
       </c>
       <c r="C38" t="n">
-        <v>235.2173485443384</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="D38" t="n">
         <v>31.63516635621274</v>
@@ -7201,25 +7201,25 @@
         <v>1581.758317810637</v>
       </c>
       <c r="S38" t="n">
-        <v>1581.758317810637</v>
+        <v>1491.751822169516</v>
       </c>
       <c r="T38" t="n">
-        <v>1368.249122711739</v>
+        <v>1278.242627070618</v>
       </c>
       <c r="U38" t="n">
-        <v>1368.249122711739</v>
+        <v>1021.341080645111</v>
       </c>
       <c r="V38" t="n">
-        <v>1018.41156804822</v>
+        <v>814.8293858600939</v>
       </c>
       <c r="W38" t="n">
-        <v>634.6512671833882</v>
+        <v>431.0690849952625</v>
       </c>
       <c r="X38" t="n">
-        <v>235.2173485443384</v>
+        <v>431.0690849952625</v>
       </c>
       <c r="Y38" t="n">
-        <v>235.2173485443384</v>
+        <v>431.0690849952625</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>455.5634130336497</v>
+        <v>326.4447098636552</v>
       </c>
       <c r="C39" t="n">
-        <v>321.5683417825954</v>
+        <v>192.4496386126009</v>
       </c>
       <c r="D39" t="n">
-        <v>321.5683417825954</v>
+        <v>152.1279823638848</v>
       </c>
       <c r="E39" t="n">
-        <v>201.0755257749234</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="F39" t="n">
-        <v>92.11564595742801</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="G39" t="n">
-        <v>92.11564595742801</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="H39" t="n">
         <v>31.63516635621274</v>
       </c>
       <c r="I39" t="n">
-        <v>31.63516635621274</v>
+        <v>47.1714243280969</v>
       </c>
       <c r="J39" t="n">
-        <v>79.21499908895491</v>
+        <v>338.4196610354723</v>
       </c>
       <c r="K39" t="n">
-        <v>192.189215647063</v>
+        <v>451.3938775935804</v>
       </c>
       <c r="L39" t="n">
-        <v>362.8576208615403</v>
+        <v>622.0622828080577</v>
       </c>
       <c r="M39" t="n">
-        <v>754.342804519673</v>
+        <v>829.063793394502</v>
       </c>
       <c r="N39" t="n">
-        <v>1145.827988177806</v>
+        <v>1047.379519204829</v>
       </c>
       <c r="O39" t="n">
-        <v>1336.545208799746</v>
+        <v>1238.096739826769</v>
       </c>
       <c r="P39" t="n">
-        <v>1481.782700447504</v>
+        <v>1383.334231474526</v>
       </c>
       <c r="Q39" t="n">
-        <v>1575.480189073219</v>
+        <v>1487.510472596237</v>
       </c>
       <c r="R39" t="n">
         <v>1581.758317810637</v>
       </c>
       <c r="S39" t="n">
-        <v>1493.513819184072</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="T39" t="n">
-        <v>1338.456754626603</v>
+        <v>1426.701253253168</v>
       </c>
       <c r="U39" t="n">
-        <v>1141.175880640591</v>
+        <v>1229.420379267156</v>
       </c>
       <c r="V39" t="n">
-        <v>927.4643536336253</v>
+        <v>1015.70885226019</v>
       </c>
       <c r="W39" t="n">
-        <v>772.1924275303436</v>
+        <v>802.475683996519</v>
       </c>
       <c r="X39" t="n">
-        <v>595.8664456692363</v>
+        <v>626.1497021354119</v>
       </c>
       <c r="Y39" t="n">
-        <v>595.8664456692363</v>
+        <v>466.7477424992419</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>451.7678898972306</v>
+        <v>369.1598505812302</v>
       </c>
       <c r="C40" t="n">
-        <v>280.6745174589471</v>
+        <v>198.0664781429467</v>
       </c>
       <c r="D40" t="n">
-        <v>121.1798727818571</v>
+        <v>38.57183346585674</v>
       </c>
       <c r="E40" t="n">
-        <v>121.1798727818571</v>
+        <v>38.57183346585674</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1798727818571</v>
+        <v>38.57183346585674</v>
       </c>
       <c r="G40" t="n">
-        <v>121.1798727818571</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="H40" t="n">
-        <v>121.1798727818571</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="I40" t="n">
         <v>31.63516635621274</v>
       </c>
       <c r="J40" t="n">
-        <v>107.4729092677584</v>
+        <v>42.47154563642205</v>
       </c>
       <c r="K40" t="n">
-        <v>363.5079903667436</v>
+        <v>298.5066267354072</v>
       </c>
       <c r="L40" t="n">
-        <v>541.7474399419732</v>
+        <v>688.2667120485919</v>
       </c>
       <c r="M40" t="n">
-        <v>933.2326236001059</v>
+        <v>769.4867285581528</v>
       </c>
       <c r="N40" t="n">
-        <v>1324.717807258239</v>
+        <v>1135.917008045335</v>
       </c>
       <c r="O40" t="n">
-        <v>1392.666400693489</v>
+        <v>1518.940360899326</v>
       </c>
       <c r="P40" t="n">
-        <v>1443.088062550128</v>
+        <v>1569.362022755965</v>
       </c>
       <c r="Q40" t="n">
         <v>1581.758317810637</v>
@@ -7359,25 +7359,25 @@
         <v>1581.758317810637</v>
       </c>
       <c r="S40" t="n">
-        <v>1410.898039341105</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="T40" t="n">
-        <v>1175.157229444444</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="U40" t="n">
-        <v>950.389333568944</v>
+        <v>1299.008782217952</v>
       </c>
       <c r="V40" t="n">
-        <v>676.5035885084659</v>
+        <v>1299.008782217952</v>
       </c>
       <c r="W40" t="n">
-        <v>676.5035885084659</v>
+        <v>1019.939117726826</v>
       </c>
       <c r="X40" t="n">
-        <v>676.5035885084659</v>
+        <v>781.5952555865099</v>
       </c>
       <c r="Y40" t="n">
-        <v>451.7678898972306</v>
+        <v>556.8595569752746</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1197.998016945805</v>
+        <v>1324.85677138513</v>
       </c>
       <c r="C41" t="n">
-        <v>1197.998016945805</v>
+        <v>925.4228527460805</v>
       </c>
       <c r="D41" t="n">
-        <v>1197.998016945805</v>
+        <v>925.4228527460805</v>
       </c>
       <c r="E41" t="n">
-        <v>830.5030036343121</v>
+        <v>525.9889341070307</v>
       </c>
       <c r="F41" t="n">
-        <v>431.0690849952624</v>
+        <v>440.8241069795121</v>
       </c>
       <c r="G41" t="n">
-        <v>31.63516635621274</v>
+        <v>41.39018834046234</v>
       </c>
       <c r="H41" t="n">
-        <v>31.63516635621274</v>
+        <v>41.39018834046234</v>
       </c>
       <c r="I41" t="n">
         <v>31.63516635621274</v>
       </c>
       <c r="J41" t="n">
-        <v>124.3176641550681</v>
+        <v>124.3176641550685</v>
       </c>
       <c r="K41" t="n">
-        <v>283.7738027861271</v>
+        <v>283.7738027861276</v>
       </c>
       <c r="L41" t="n">
-        <v>496.538456386711</v>
+        <v>496.5384563867113</v>
       </c>
       <c r="M41" t="n">
-        <v>746.1062510420654</v>
+        <v>746.1062510420657</v>
       </c>
       <c r="N41" t="n">
         <v>1001.580905923467</v>
@@ -7432,7 +7432,7 @@
         <v>1424.725851794088</v>
       </c>
       <c r="Q41" t="n">
-        <v>1545.876587892983</v>
+        <v>1545.876587892984</v>
       </c>
       <c r="R41" t="n">
         <v>1581.758317810637</v>
@@ -7444,19 +7444,19 @@
         <v>1581.758317810637</v>
       </c>
       <c r="U41" t="n">
-        <v>1581.758317810637</v>
+        <v>1324.85677138513</v>
       </c>
       <c r="V41" t="n">
-        <v>1581.758317810637</v>
+        <v>1324.85677138513</v>
       </c>
       <c r="W41" t="n">
-        <v>1197.998016945805</v>
+        <v>1324.85677138513</v>
       </c>
       <c r="X41" t="n">
-        <v>1197.998016945805</v>
+        <v>1324.85677138513</v>
       </c>
       <c r="Y41" t="n">
-        <v>1197.998016945805</v>
+        <v>1324.85677138513</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>466.7477424992414</v>
+        <v>403.0202113955467</v>
       </c>
       <c r="C42" t="n">
-        <v>466.7477424992414</v>
+        <v>269.0251401444924</v>
       </c>
       <c r="D42" t="n">
-        <v>349.8505847186339</v>
+        <v>152.1279823638848</v>
       </c>
       <c r="E42" t="n">
-        <v>246.5221183476621</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="F42" t="n">
-        <v>137.5622385301667</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="G42" t="n">
         <v>31.63516635621274</v>
@@ -7490,25 +7490,25 @@
         <v>47.1714243280969</v>
       </c>
       <c r="J42" t="n">
-        <v>94.75125706083907</v>
+        <v>338.4196610354723</v>
       </c>
       <c r="K42" t="n">
-        <v>207.7254736189471</v>
+        <v>451.3938775935804</v>
       </c>
       <c r="L42" t="n">
-        <v>378.3938788334245</v>
+        <v>622.0622828080577</v>
       </c>
       <c r="M42" t="n">
-        <v>585.3953894198688</v>
+        <v>829.063793394502</v>
       </c>
       <c r="N42" t="n">
-        <v>803.7111152301953</v>
+        <v>1047.379519204829</v>
       </c>
       <c r="O42" t="n">
-        <v>994.4283358521358</v>
+        <v>1238.096739826769</v>
       </c>
       <c r="P42" t="n">
-        <v>1139.665827499893</v>
+        <v>1383.334231474526</v>
       </c>
       <c r="Q42" t="n">
         <v>1487.510472596237</v>
@@ -7520,7 +7520,7 @@
         <v>1581.758317810637</v>
       </c>
       <c r="T42" t="n">
-        <v>1426.701253253167</v>
+        <v>1426.701253253168</v>
       </c>
       <c r="U42" t="n">
         <v>1229.420379267156</v>
@@ -7529,13 +7529,13 @@
         <v>1015.70885226019</v>
       </c>
       <c r="W42" t="n">
-        <v>802.4756839965186</v>
+        <v>879.0511855284105</v>
       </c>
       <c r="X42" t="n">
-        <v>626.1497021354114</v>
+        <v>702.7252036673033</v>
       </c>
       <c r="Y42" t="n">
-        <v>466.7477424992414</v>
+        <v>543.3232440311333</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.0737647713527</v>
+        <v>355.7609369227115</v>
       </c>
       <c r="C43" t="n">
-        <v>50.0737647713527</v>
+        <v>355.7609369227115</v>
       </c>
       <c r="D43" t="n">
-        <v>50.0737647713527</v>
+        <v>196.2662922456215</v>
       </c>
       <c r="E43" t="n">
-        <v>50.0737647713527</v>
+        <v>196.2662922456215</v>
       </c>
       <c r="F43" t="n">
-        <v>50.0737647713527</v>
+        <v>31.63516635621274</v>
       </c>
       <c r="G43" t="n">
         <v>31.63516635621274</v>
@@ -7569,52 +7569,52 @@
         <v>31.63516635621274</v>
       </c>
       <c r="J43" t="n">
-        <v>42.47154563642204</v>
+        <v>42.47154563642205</v>
       </c>
       <c r="K43" t="n">
-        <v>298.5066267354072</v>
+        <v>92.22643314969315</v>
       </c>
       <c r="L43" t="n">
-        <v>374.2876008135688</v>
+        <v>352.9466407290699</v>
       </c>
       <c r="M43" t="n">
-        <v>765.7727844717014</v>
+        <v>744.4318243872026</v>
       </c>
       <c r="N43" t="n">
-        <v>1157.257968129834</v>
+        <v>1135.917008045335</v>
       </c>
       <c r="O43" t="n">
-        <v>1225.206561565084</v>
+        <v>1518.940360899326</v>
       </c>
       <c r="P43" t="n">
-        <v>1443.088062550127</v>
+        <v>1569.362022755965</v>
       </c>
       <c r="Q43" t="n">
         <v>1581.758317810637</v>
       </c>
       <c r="R43" t="n">
-        <v>1536.557977061238</v>
+        <v>1581.758317810637</v>
       </c>
       <c r="S43" t="n">
-        <v>1536.557977061238</v>
+        <v>1410.898039341105</v>
       </c>
       <c r="T43" t="n">
-        <v>1536.557977061238</v>
+        <v>1175.157229444444</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.808441468553</v>
+        <v>892.4076938517593</v>
       </c>
       <c r="V43" t="n">
-        <v>979.9226964080747</v>
+        <v>892.4076938517593</v>
       </c>
       <c r="W43" t="n">
-        <v>700.853031916949</v>
+        <v>613.3380293606336</v>
       </c>
       <c r="X43" t="n">
-        <v>462.5091697766324</v>
+        <v>374.994167220317</v>
       </c>
       <c r="Y43" t="n">
-        <v>237.7734711653971</v>
+        <v>355.7609369227115</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.63516635621274</v>
+        <v>1368.249122711738</v>
       </c>
       <c r="C44" t="n">
-        <v>31.63516635621274</v>
+        <v>968.8152040726889</v>
       </c>
       <c r="D44" t="n">
-        <v>31.63516635621274</v>
+        <v>840.2580256185615</v>
       </c>
       <c r="E44" t="n">
-        <v>31.63516635621274</v>
+        <v>440.824106979512</v>
       </c>
       <c r="F44" t="n">
-        <v>31.63516635621274</v>
+        <v>41.39018834046233</v>
       </c>
       <c r="G44" t="n">
-        <v>31.63516635621274</v>
+        <v>41.39018834046233</v>
       </c>
       <c r="H44" t="n">
-        <v>31.63516635621274</v>
+        <v>41.39018834046233</v>
       </c>
       <c r="I44" t="n">
-        <v>31.63516635621274</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="J44" t="n">
-        <v>124.3176641550682</v>
+        <v>124.3176641550683</v>
       </c>
       <c r="K44" t="n">
-        <v>283.7738027861272</v>
+        <v>283.7738027861273</v>
       </c>
       <c r="L44" t="n">
-        <v>496.538456386711</v>
+        <v>496.5384563867111</v>
       </c>
       <c r="M44" t="n">
-        <v>746.1062510420659</v>
+        <v>746.1062510420655</v>
       </c>
       <c r="N44" t="n">
-        <v>1001.580905923468</v>
+        <v>1001.580905923467</v>
       </c>
       <c r="O44" t="n">
         <v>1237.417597314452</v>
       </c>
       <c r="P44" t="n">
-        <v>1424.725851794088</v>
+        <v>1424.725851794087</v>
       </c>
       <c r="Q44" t="n">
         <v>1545.876587892983</v>
@@ -7678,22 +7678,22 @@
         <v>1581.758317810637</v>
       </c>
       <c r="T44" t="n">
-        <v>1421.56848694912</v>
+        <v>1368.249122711738</v>
       </c>
       <c r="U44" t="n">
-        <v>1164.666940523613</v>
+        <v>1368.249122711738</v>
       </c>
       <c r="V44" t="n">
-        <v>814.8293858600939</v>
+        <v>1368.249122711738</v>
       </c>
       <c r="W44" t="n">
-        <v>431.0690849952624</v>
+        <v>1368.249122711738</v>
       </c>
       <c r="X44" t="n">
-        <v>431.0690849952624</v>
+        <v>1368.249122711738</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.63516635621274</v>
+        <v>1368.249122711738</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>481.5017744211244</v>
+        <v>378.5032438726764</v>
       </c>
       <c r="C45" t="n">
-        <v>481.5017744211244</v>
+        <v>378.5032438726764</v>
       </c>
       <c r="D45" t="n">
-        <v>427.4954139565493</v>
+        <v>307.0025979488773</v>
       </c>
       <c r="E45" t="n">
         <v>307.0025979488773</v>
@@ -7718,25 +7718,25 @@
         <v>198.0427181313819</v>
       </c>
       <c r="G45" t="n">
-        <v>92.11564595742803</v>
+        <v>92.11564595742801</v>
       </c>
       <c r="H45" t="n">
-        <v>31.63516635621274</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="I45" t="n">
         <v>47.1714243280969</v>
       </c>
       <c r="J45" t="n">
-        <v>338.4196610354723</v>
+        <v>338.4196610354724</v>
       </c>
       <c r="K45" t="n">
         <v>451.3938775935804</v>
       </c>
       <c r="L45" t="n">
-        <v>622.0622828080577</v>
+        <v>622.0622828080578</v>
       </c>
       <c r="M45" t="n">
-        <v>829.063793394502</v>
+        <v>829.0637933945022</v>
       </c>
       <c r="N45" t="n">
         <v>1047.379519204829</v>
@@ -7745,34 +7745,34 @@
         <v>1238.096739826769</v>
       </c>
       <c r="P45" t="n">
-        <v>1383.334231474526</v>
+        <v>1383.334231474527</v>
       </c>
       <c r="Q45" t="n">
-        <v>1575.480189073219</v>
+        <v>1487.510472596237</v>
       </c>
       <c r="R45" t="n">
         <v>1581.758317810637</v>
       </c>
       <c r="S45" t="n">
-        <v>1581.758317810637</v>
+        <v>1493.513819184072</v>
       </c>
       <c r="T45" t="n">
-        <v>1581.758317810637</v>
+        <v>1338.456754626602</v>
       </c>
       <c r="U45" t="n">
-        <v>1384.477443824626</v>
+        <v>1141.175880640591</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.765916817659</v>
+        <v>927.4643536336248</v>
       </c>
       <c r="W45" t="n">
-        <v>957.5327485539882</v>
+        <v>714.2311853699536</v>
       </c>
       <c r="X45" t="n">
-        <v>781.206766692881</v>
+        <v>537.9052035088464</v>
       </c>
       <c r="Y45" t="n">
-        <v>621.8048070567111</v>
+        <v>378.5032438726764</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>285.8109986712658</v>
+        <v>694.6296534348718</v>
       </c>
       <c r="C46" t="n">
-        <v>285.8109986712658</v>
+        <v>523.5362809965883</v>
       </c>
       <c r="D46" t="n">
-        <v>285.8109986712658</v>
+        <v>523.5362809965883</v>
       </c>
       <c r="E46" t="n">
-        <v>285.8109986712658</v>
+        <v>362.6254658649078</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1798727818571</v>
+        <v>197.994339975499</v>
       </c>
       <c r="G46" t="n">
-        <v>121.1798727818571</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="H46" t="n">
-        <v>121.1798727818571</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="I46" t="n">
-        <v>31.63516635621274</v>
+        <v>31.63516635621273</v>
       </c>
       <c r="J46" t="n">
-        <v>42.47154563642204</v>
+        <v>65.53325760595038</v>
       </c>
       <c r="K46" t="n">
-        <v>92.22643314969314</v>
+        <v>321.5683387049356</v>
       </c>
       <c r="L46" t="n">
-        <v>352.9466407290698</v>
+        <v>711.3284240181202</v>
       </c>
       <c r="M46" t="n">
-        <v>744.4318243872024</v>
+        <v>792.5484405276811</v>
       </c>
       <c r="N46" t="n">
-        <v>1135.917008045335</v>
+        <v>875.0195245722166</v>
       </c>
       <c r="O46" t="n">
-        <v>1518.940360899326</v>
+        <v>1258.042877426208</v>
       </c>
       <c r="P46" t="n">
         <v>1569.362022755965</v>
@@ -7833,25 +7833,25 @@
         <v>1581.758317810637</v>
       </c>
       <c r="S46" t="n">
-        <v>1581.758317810637</v>
+        <v>1410.898039341105</v>
       </c>
       <c r="T46" t="n">
-        <v>1581.758317810637</v>
+        <v>1410.898039341105</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.545675368466</v>
+        <v>1410.898039341105</v>
       </c>
       <c r="V46" t="n">
-        <v>1215.659930307988</v>
+        <v>1410.898039341105</v>
       </c>
       <c r="W46" t="n">
-        <v>936.590265816862</v>
+        <v>1131.828374849979</v>
       </c>
       <c r="X46" t="n">
-        <v>698.2464036765455</v>
+        <v>893.4845127096628</v>
       </c>
       <c r="Y46" t="n">
-        <v>473.5107050653102</v>
+        <v>694.6296534348718</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>32.32750642064433</v>
       </c>
       <c r="K2" t="n">
-        <v>27.69388552783374</v>
+        <v>27.69388552783373</v>
       </c>
       <c r="L2" t="n">
         <v>19.2605385526292</v>
@@ -8142,7 +8142,7 @@
         <v>27.07747822466578</v>
       </c>
       <c r="L4" t="n">
-        <v>22.41565970901927</v>
+        <v>22.41565970901928</v>
       </c>
       <c r="M4" t="n">
         <v>22.30123629540936</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4.072268563447707</v>
+        <v>4.0722685634477</v>
       </c>
       <c r="J12" t="n">
-        <v>60.47013725967336</v>
+        <v>60.47013725967329</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>317.7929710180051</v>
+        <v>317.7929710180052</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>183.0558478937006</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>312.1354541551485</v>
+        <v>93.62007232876086</v>
       </c>
       <c r="O13" t="n">
         <v>318.2573327462026</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.76545843403778</v>
+        <v>4.0722685634477</v>
       </c>
       <c r="J15" t="n">
         <v>246.129700984478</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>132.1334072932004</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.58191795091194</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9093,10 +9093,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>212.8958212108223</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>212.8958212108226</v>
       </c>
       <c r="O16" t="n">
         <v>318.2573327462026</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4.072268563447707</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
         <v>246.129700984478</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>43.27510782150203</v>
+        <v>27.58191795091194</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9324,19 +9324,19 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>117.3979048317446</v>
+        <v>313.3991587359309</v>
       </c>
       <c r="N19" t="n">
         <v>312.1354541551485</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>231.0428643463685</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.58191795091219</v>
+        <v>27.5819179509124</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>183.0558478937006</v>
+        <v>227.2914056731858</v>
       </c>
       <c r="N22" t="n">
-        <v>312.1354541551485</v>
+        <v>312.1354541551486</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>4.072268563447714</v>
       </c>
       <c r="J24" t="n">
-        <v>8.080599614035755</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>281.3242091919437</v>
+        <v>132.1334072932008</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>317.1506174091142</v>
+        <v>241.5318277240784</v>
       </c>
       <c r="M25" t="n">
-        <v>93.6200723287601</v>
+        <v>313.3991587359311</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>312.1354541551486</v>
       </c>
       <c r="O25" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.71161893539</v>
+        <v>27.58191795091265</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10041,16 +10041,16 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>313.3991587359309</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>312.1354541551485</v>
+        <v>231.6584904598412</v>
       </c>
       <c r="O28" t="n">
-        <v>187.9140219039722</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>4.072268563447714</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>203.3444639869653</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>174.9186442907131</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>27.5819179509122</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,22 +10272,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>317.1506174091142</v>
+        <v>186.8073065668839</v>
       </c>
       <c r="M31" t="n">
-        <v>23.29465855507911</v>
+        <v>313.3991587359309</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>312.1354541551485</v>
       </c>
       <c r="O31" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>174.9186442907131</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>98.792974644677</v>
+        <v>27.58191795091265</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>313.3991587359309</v>
+        <v>236.6736537138069</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>312.1354541551486</v>
       </c>
       <c r="O34" t="n">
-        <v>152.0960521591379</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>4.072268563447714</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.1334072932011</v>
+        <v>273.7116189353904</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>186.8073065668841</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>313.3991587359311</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>312.1354541551486</v>
       </c>
       <c r="O37" t="n">
-        <v>148.3445934859553</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>4.072268563447714</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>186.3471445168569</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>174.9186442907132</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>16.99731947010875</v>
+        <v>27.58191795091265</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>103.493409592998</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>313.3991587359311</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>312.1354541551486</v>
+        <v>286.8274701440878</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.7116189353904</v>
+        <v>27.58191795091265</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>186.8073065668841</v>
       </c>
       <c r="M43" t="n">
-        <v>313.399158735931</v>
+        <v>313.3991587359311</v>
       </c>
       <c r="N43" t="n">
         <v>312.1354541551486</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>169.1513526549539</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.4402174226108</v>
+        <v>27.58191795091194</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>23.29465855507912</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>186.8073065668839</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>313.399158735931</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>312.1354541551486</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.157976951597653</v>
+        <v>4.157976951597675</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.157976951597653</v>
+        <v>4.157976951597675</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.67938841518543</v>
+        <v>10.67938841518531</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>4.979711155210794</v>
       </c>
       <c r="E11" t="n">
-        <v>172.1667167518065</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.6740529931776</v>
+        <v>7.234473540518366</v>
       </c>
       <c r="H11" t="n">
         <v>287.6554033985326</v>
       </c>
       <c r="I11" t="n">
-        <v>9.657471764407106</v>
+        <v>9.657471764407092</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>206.5098832119682</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>87.36205364029937</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23396,16 +23396,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>4.193971517870096</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>50.12199881007956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.6955818830934</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>235.7639195230832</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>97.98942892757867</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23500,7 +23500,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>4.979711155210794</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -23512,10 +23512,10 @@
         <v>402.6740529931776</v>
       </c>
       <c r="H14" t="n">
-        <v>43.7658969899979</v>
+        <v>287.6554033985326</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>9.657471764407092</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>89.10643068470982</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>103.3742977995138</v>
       </c>
     </row>
     <row r="15">
@@ -23576,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>104.8678014522144</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23630,13 +23630,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3080652461509</v>
+        <v>82.53444924005011</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>28.90308045056261</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6955818830934</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2668846021892</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.74833734190508</v>
       </c>
       <c r="S16" t="n">
-        <v>169.1516756848362</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3834017976947</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>120.8160002666287</v>
+        <v>104.7948254577181</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>42.29890468946633</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23743,16 +23743,16 @@
         <v>14.75723387561311</v>
       </c>
       <c r="F17" t="n">
-        <v>21.38052847319017</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>7.234473540518479</v>
+        <v>402.6740529931776</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>287.6554033985326</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>9.657471764407106</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>211.374103147909</v>
       </c>
       <c r="U17" t="n">
-        <v>203.342224542289</v>
+        <v>254.3325309612515</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>1.48772686873167</v>
       </c>
     </row>
     <row r="18">
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>104.8678014522144</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>87.36205364029937</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>153.5064939118948</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>119.3433442444992</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>194.9170098814161</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>170.380852024801</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23910,7 +23910,7 @@
         <v>140.2668846021892</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>88.64925936138791</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.74833734190508</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>169.1516756848362</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.96052747295323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>10.67938841518531</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>10.58376532720331</v>
       </c>
       <c r="D20" t="n">
-        <v>4.979711155210907</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>14.75723387561311</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>21.38052847319017</v>
+        <v>21.38052847319005</v>
       </c>
       <c r="G20" t="n">
         <v>402.6740529931776</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>9.65747176440712</v>
+        <v>9.657471764407106</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>28.45865250134015</v>
+        <v>28.45865250134037</v>
       </c>
       <c r="T20" t="n">
         <v>211.374103147909</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>107.7163414792194</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>104.8678014522144</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24101,19 +24101,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>153.5064939118948</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3080652461509</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>135.6096907352443</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>133.7090871258513</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>98.32475444993757</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2668846021892</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>88.64925936138791</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.74833734190509</v>
+        <v>44.74833734190508</v>
       </c>
       <c r="S22" t="n">
         <v>169.1516756848362</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3834017976947</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.67938841518554</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>4.979711155210794</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>21.38052847319028</v>
+        <v>21.38052847319005</v>
       </c>
       <c r="G23" t="n">
-        <v>402.6740529931776</v>
+        <v>7.234473540518366</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>287.6554033985326</v>
       </c>
       <c r="I23" t="n">
         <v>9.657471764407106</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>89.10643068470984</v>
       </c>
       <c r="T23" t="n">
         <v>211.374103147909</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.94637937007241</v>
+        <v>48.62412473948854</v>
       </c>
     </row>
     <row r="24">
@@ -24290,19 +24290,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>67.95184133309144</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>104.8678014522144</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>59.87567480520313</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24341,13 +24341,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3080652461509</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>153.1154385471602</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>140.626163124879</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.74833734190508</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9220402367579</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>140.6653959794096</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.67938841518543</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>4.979711155210907</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>14.757233875613</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>21.38052847319005</v>
       </c>
       <c r="G26" t="n">
         <v>402.6740529931776</v>
       </c>
       <c r="H26" t="n">
-        <v>267.2743018661159</v>
+        <v>287.6554033985326</v>
       </c>
       <c r="I26" t="n">
-        <v>9.657471764407106</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>89.10643068470984</v>
       </c>
       <c r="T26" t="n">
-        <v>211.374103147909</v>
+        <v>111.5440426951893</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24524,10 +24524,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>100.0401970519652</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24572,16 +24572,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>87.36205364029937</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3080652461509</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>28.90308045056287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>153.1577698866928</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>157.7280845509596</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2668846021892</v>
       </c>
       <c r="I28" t="n">
         <v>88.64925936138791</v>
@@ -24651,10 +24651,10 @@
         <v>44.74833734190508</v>
       </c>
       <c r="S28" t="n">
-        <v>169.1516756848362</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3834017976947</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9220402367579</v>
@@ -24669,7 +24669,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,13 +24682,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>10.58376532720342</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>4.979711155210907</v>
       </c>
       <c r="E29" t="n">
-        <v>61.89363174637003</v>
+        <v>172.1667167518065</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.10643068470984</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>211.374103147909</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3325309612515</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>1.197384400077851</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>124.7493059846577</v>
       </c>
       <c r="D30" t="n">
         <v>115.7281862028015</v>
@@ -24776,7 +24776,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>12.83952864976889</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>195.3080652461509</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.6955818830934</v>
       </c>
       <c r="H31" t="n">
         <v>140.2668846021892</v>
       </c>
       <c r="I31" t="n">
-        <v>47.93634245330331</v>
+        <v>88.64925936138791</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.74833734190508</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>169.1516756848362</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3834017976947</v>
+        <v>199.9481351732617</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,16 +24925,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>14.757233875613</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>21.38052847319005</v>
       </c>
       <c r="G32" t="n">
-        <v>7.234473540518482</v>
+        <v>402.6740529931776</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>287.6554033985326</v>
       </c>
       <c r="I32" t="n">
         <v>9.657471764407106</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.10643068470984</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.374103147909</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>193.6847527778818</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>190.9930016154921</v>
       </c>
       <c r="X32" t="n">
-        <v>1.197384400077851</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.48772686873167</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>104.8678014522144</v>
       </c>
       <c r="H33" t="n">
         <v>59.87567480520313</v>
@@ -25049,7 +25049,7 @@
         <v>87.36205364029937</v>
       </c>
       <c r="T33" t="n">
-        <v>153.5064939118948</v>
+        <v>67.95184133309158</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>135.041335076213</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>36.56323160489802</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6955818830934</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2668846021892</v>
+        <v>123.5244341711481</v>
       </c>
       <c r="I34" t="n">
         <v>88.64925936138791</v>
@@ -25125,10 +25125,10 @@
         <v>44.74833734190508</v>
       </c>
       <c r="S34" t="n">
-        <v>169.1516756848362</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3834017976947</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>57.81578628594229</v>
+        <v>10.67938841518531</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -25162,13 +25162,13 @@
         <v>4.979711155210794</v>
       </c>
       <c r="E35" t="n">
-        <v>14.757233875613</v>
+        <v>151.00006243108</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>21.38052847319005</v>
       </c>
       <c r="G35" t="n">
-        <v>7.234473540518368</v>
+        <v>402.6740529931776</v>
       </c>
       <c r="H35" t="n">
         <v>287.6554033985326</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>89.10643068470984</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>211.374103147909</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>67.95184133309144</v>
       </c>
       <c r="G36" t="n">
         <v>104.8678014522144</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>44.78002522666215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.6930321101995</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>44.74833734190508</v>
       </c>
       <c r="S37" t="n">
-        <v>169.1516756848362</v>
+        <v>26.68808161240446</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3834017976947</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>10.58376532720331</v>
       </c>
       <c r="D38" t="n">
-        <v>198.8729302416256</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>89.10643068470984</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3325309612515</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>141.892601279717</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.197384400077738</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25475,19 +25475,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>75.80974651657246</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>104.8678014522144</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>59.87567480520313</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>87.36205364029937</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>57.38162973878568</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6955818830934</v>
+        <v>157.8282814445459</v>
       </c>
       <c r="H40" t="n">
         <v>140.2668846021892</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>88.64925936138791</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>44.74833734190508</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>169.1516756848362</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3834017976947</v>
       </c>
       <c r="U40" t="n">
-        <v>57.40182332001289</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,25 +25630,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>10.58376532720331</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>46.37675014989395</v>
+        <v>14.757233875613</v>
       </c>
       <c r="F41" t="n">
-        <v>21.38052847319011</v>
+        <v>332.5069290696059</v>
       </c>
       <c r="G41" t="n">
-        <v>7.234473540518422</v>
+        <v>7.234473540518366</v>
       </c>
       <c r="H41" t="n">
         <v>287.6554033985326</v>
       </c>
       <c r="I41" t="n">
-        <v>9.65747176440712</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>211.374103147909</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3325309612515</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>16.99270614033324</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>104.8678014522144</v>
       </c>
       <c r="H42" t="n">
         <v>59.87567480520313</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>87.36205364029938</v>
+        <v>87.36205364029937</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>75.8097465165726</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>146.4413694521049</v>
+        <v>164.6955818830934</v>
       </c>
       <c r="H43" t="n">
         <v>140.2668846021892</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>44.74833734190508</v>
       </c>
       <c r="S43" t="n">
-        <v>169.1516756848362</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3834017976947</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>203.4474436304935</v>
       </c>
     </row>
     <row r="44">
@@ -25867,16 +25867,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>10.58376532720342</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>273.147683938284</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>14.75723387561311</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>21.38052847319017</v>
       </c>
       <c r="G44" t="n">
         <v>402.6740529931776</v>
@@ -25885,7 +25885,7 @@
         <v>287.6554033985326</v>
       </c>
       <c r="I44" t="n">
-        <v>9.65747176440712</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>89.10643068470984</v>
+        <v>89.10643068470982</v>
       </c>
       <c r="T44" t="n">
-        <v>52.78617059500715</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3325309612515</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.487726868731613</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>62.26188934287214</v>
+        <v>44.9425467382404</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>87.36205364029938</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>153.5064939118948</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6955818830934</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2668846021892</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>88.64925936138791</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.74833734190509</v>
+        <v>44.74833734190508</v>
       </c>
       <c r="S46" t="n">
-        <v>169.1516756848362</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>233.3834017976947</v>
       </c>
       <c r="U46" t="n">
-        <v>188.6315242190086</v>
+        <v>279.9220402367579</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>25.62203094307984</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>401628.4100517851</v>
+        <v>401628.4100517853</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>401628.4100517851</v>
+        <v>401628.4100517852</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>401628.4100517852</v>
+        <v>401628.4100517854</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>401628.4100517851</v>
+        <v>401628.4100517853</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>401628.4100517851</v>
+        <v>401628.4100517852</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>401628.4100517852</v>
+        <v>401628.4100517853</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>401628.4100517853</v>
+        <v>401628.4100517852</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>405030.0916334427</v>
+        <v>405030.091633443</v>
       </c>
       <c r="C2" t="n">
-        <v>405030.0916334429</v>
+        <v>405030.0916334428</v>
       </c>
       <c r="D2" t="n">
         <v>405031.9666924948</v>
       </c>
       <c r="E2" t="n">
-        <v>211086.5050201686</v>
+        <v>211086.5050201687</v>
       </c>
       <c r="F2" t="n">
         <v>211086.5050201686</v>
@@ -26331,10 +26331,10 @@
         <v>211086.5050201686</v>
       </c>
       <c r="H2" t="n">
+        <v>211086.5050201688</v>
+      </c>
+      <c r="I2" t="n">
         <v>211086.5050201687</v>
-      </c>
-      <c r="I2" t="n">
-        <v>211086.5050201686</v>
       </c>
       <c r="J2" t="n">
         <v>211086.5050201686</v>
@@ -26343,19 +26343,19 @@
         <v>211086.5050201686</v>
       </c>
       <c r="L2" t="n">
-        <v>211086.5050201686</v>
+        <v>211086.5050201687</v>
       </c>
       <c r="M2" t="n">
         <v>211086.5050201687</v>
       </c>
       <c r="N2" t="n">
-        <v>211086.5050201686</v>
+        <v>211086.5050201687</v>
       </c>
       <c r="O2" t="n">
         <v>211086.5050201687</v>
       </c>
       <c r="P2" t="n">
-        <v>211086.5050201686</v>
+        <v>211086.5050201687</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>98545.12495792047</v>
+        <v>98545.1249579205</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>22015.60704595512</v>
       </c>
       <c r="F4" t="n">
-        <v>22015.60704595511</v>
+        <v>22015.60704595512</v>
       </c>
       <c r="G4" t="n">
         <v>22015.60704595511</v>
       </c>
       <c r="H4" t="n">
-        <v>22015.60704595512</v>
+        <v>22015.60704595513</v>
       </c>
       <c r="I4" t="n">
-        <v>22015.6070459551</v>
+        <v>22015.60704595513</v>
       </c>
       <c r="J4" t="n">
-        <v>22015.60704595512</v>
+        <v>22015.60704595513</v>
       </c>
       <c r="K4" t="n">
         <v>22015.60704595512</v>
       </c>
       <c r="L4" t="n">
+        <v>22015.60704595513</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22015.60704595513</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22015.60704595514</v>
+      </c>
+      <c r="O4" t="n">
+        <v>22015.60704595514</v>
+      </c>
+      <c r="P4" t="n">
         <v>22015.60704595511</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22015.60704595514</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22015.60704595513</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22015.60704595513</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22015.60704595513</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>36451.30153811922</v>
       </c>
       <c r="E5" t="n">
-        <v>34708.99517769047</v>
+        <v>34708.99517769048</v>
       </c>
       <c r="F5" t="n">
-        <v>34708.99517769047</v>
+        <v>34708.99517769048</v>
       </c>
       <c r="G5" t="n">
         <v>34708.99517769047</v>
       </c>
       <c r="H5" t="n">
-        <v>34708.99517769046</v>
+        <v>34708.99517769047</v>
       </c>
       <c r="I5" t="n">
-        <v>34708.99517769046</v>
+        <v>34708.99517769047</v>
       </c>
       <c r="J5" t="n">
-        <v>34708.99517769046</v>
+        <v>34708.99517769047</v>
       </c>
       <c r="K5" t="n">
         <v>34708.99517769046</v>
       </c>
       <c r="L5" t="n">
-        <v>34708.99517769046</v>
+        <v>34708.99517769047</v>
       </c>
       <c r="M5" t="n">
         <v>34708.99517769047</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73554.26940744225</v>
+        <v>-73562.97297123283</v>
       </c>
       <c r="C6" t="n">
-        <v>42226.04714830039</v>
+        <v>42217.34358450946</v>
       </c>
       <c r="D6" t="n">
-        <v>36466.24791200226</v>
+        <v>36457.55184844761</v>
       </c>
       <c r="E6" t="n">
-        <v>-252732.5194110258</v>
+        <v>-253516.9973212697</v>
       </c>
       <c r="F6" t="n">
-        <v>154361.9027965231</v>
+        <v>153577.4248862792</v>
       </c>
       <c r="G6" t="n">
-        <v>154361.9027965231</v>
+        <v>153577.4248862792</v>
       </c>
       <c r="H6" t="n">
-        <v>154361.9027965231</v>
+        <v>153577.4248862792</v>
       </c>
       <c r="I6" t="n">
-        <v>154361.902796523</v>
+        <v>153577.4248862792</v>
       </c>
       <c r="J6" t="n">
-        <v>154361.9027965231</v>
+        <v>153577.4248862791</v>
       </c>
       <c r="K6" t="n">
-        <v>154361.9027965231</v>
+        <v>153577.4248862791</v>
       </c>
       <c r="L6" t="n">
-        <v>154361.902796523</v>
+        <v>153577.4248862792</v>
       </c>
       <c r="M6" t="n">
-        <v>55816.7778386026</v>
+        <v>55032.29992835873</v>
       </c>
       <c r="N6" t="n">
-        <v>154361.902796523</v>
+        <v>153577.4248862792</v>
       </c>
       <c r="O6" t="n">
-        <v>154361.9027965231</v>
+        <v>153577.4248862792</v>
       </c>
       <c r="P6" t="n">
-        <v>154361.902796523</v>
+        <v>153577.4248862792</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>489.2783828884768</v>
       </c>
       <c r="H3" t="n">
-        <v>489.2783828884766</v>
+        <v>489.2783828884768</v>
       </c>
       <c r="I3" t="n">
         <v>489.2783828884767</v>
@@ -26776,10 +26776,10 @@
         <v>489.2783828884767</v>
       </c>
       <c r="O3" t="n">
-        <v>489.2783828884766</v>
+        <v>489.2783828884767</v>
       </c>
       <c r="P3" t="n">
-        <v>489.2783828884766</v>
+        <v>489.2783828884768</v>
       </c>
     </row>
     <row r="4">
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>395.4395794526591</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="F4" t="n">
-        <v>395.4395794526591</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="G4" t="n">
         <v>395.4395794526591</v>
       </c>
       <c r="H4" t="n">
-        <v>395.4395794526591</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="I4" t="n">
-        <v>395.439579452659</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="J4" t="n">
-        <v>395.4395794526591</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="K4" t="n">
         <v>395.4395794526591</v>
       </c>
       <c r="L4" t="n">
-        <v>395.4395794526591</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="M4" t="n">
         <v>395.4395794526592</v>
@@ -26831,7 +26831,7 @@
         <v>395.4395794526592</v>
       </c>
       <c r="P4" t="n">
-        <v>395.4395794526592</v>
+        <v>395.4395794526591</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>395.4395794526591</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.4395794526591</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.4395794526591</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31047,13 +31047,13 @@
         <v>4.946772760857344</v>
       </c>
       <c r="I2" t="n">
-        <v>18.62179488470186</v>
+        <v>18.62179488470185</v>
       </c>
       <c r="J2" t="n">
         <v>40.99608491266361</v>
       </c>
       <c r="K2" t="n">
-        <v>61.44250414538339</v>
+        <v>61.4425041453834</v>
       </c>
       <c r="L2" t="n">
         <v>76.22485951021562</v>
@@ -31126,7 +31126,7 @@
         <v>2.495993968922122</v>
       </c>
       <c r="I3" t="n">
-        <v>8.898071142615192</v>
+        <v>8.898071142615191</v>
       </c>
       <c r="J3" t="n">
         <v>24.41698732268457</v>
@@ -31235,10 +31235,10 @@
         <v>9.742184705786196</v>
       </c>
       <c r="S4" t="n">
-        <v>3.775933700160157</v>
+        <v>3.775933700160156</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9257636093246081</v>
+        <v>0.9257636093246082</v>
       </c>
       <c r="U4" t="n">
         <v>0.01181825884244182</v>
@@ -31758,7 +31758,7 @@
         <v>20.14400900002657</v>
       </c>
       <c r="I11" t="n">
-        <v>75.83077329169046</v>
+        <v>75.83077329169048</v>
       </c>
       <c r="J11" t="n">
         <v>166.9422759786165</v>
@@ -31767,16 +31767,16 @@
         <v>250.2031963712566</v>
       </c>
       <c r="L11" t="n">
-        <v>310.3991895785861</v>
+        <v>310.3991895785862</v>
       </c>
       <c r="M11" t="n">
-        <v>345.3789059271004</v>
+        <v>345.3789059271005</v>
       </c>
       <c r="N11" t="n">
         <v>350.9674977075302</v>
       </c>
       <c r="O11" t="n">
-        <v>331.4086558186968</v>
+        <v>331.4086558186969</v>
       </c>
       <c r="P11" t="n">
         <v>282.8496203310214</v>
@@ -31791,7 +31791,7 @@
         <v>44.82183376913032</v>
       </c>
       <c r="T11" t="n">
-        <v>8.610316064700729</v>
+        <v>8.610316064700731</v>
       </c>
       <c r="U11" t="n">
         <v>0.1573558618334798</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.052410106590308</v>
+        <v>1.052410106590309</v>
       </c>
       <c r="H12" t="n">
         <v>10.16406602943798</v>
       </c>
       <c r="I12" t="n">
-        <v>36.23429533655229</v>
+        <v>36.2342953365523</v>
       </c>
       <c r="J12" t="n">
-        <v>99.42967590377999</v>
+        <v>99.42967590378001</v>
       </c>
       <c r="K12" t="n">
         <v>169.9411530453307</v>
@@ -31855,7 +31855,7 @@
         <v>273.7143285556961</v>
       </c>
       <c r="O12" t="n">
-        <v>250.3951361938792</v>
+        <v>250.3951361938793</v>
       </c>
       <c r="P12" t="n">
         <v>200.9641720207406</v>
@@ -31864,16 +31864,16 @@
         <v>134.3392269394927</v>
       </c>
       <c r="R12" t="n">
-        <v>65.34174328461584</v>
+        <v>65.34174328461586</v>
       </c>
       <c r="S12" t="n">
-        <v>19.54805614653488</v>
+        <v>19.54805614653489</v>
       </c>
       <c r="T12" t="n">
-        <v>4.241951262967075</v>
+        <v>4.241951262967076</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06923750701252032</v>
+        <v>0.06923750701252034</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8823052806185645</v>
+        <v>0.8823052806185646</v>
       </c>
       <c r="H13" t="n">
-        <v>7.844496040408698</v>
+        <v>7.844496040408699</v>
       </c>
       <c r="I13" t="n">
-        <v>26.5333260753292</v>
+        <v>26.53332607532921</v>
       </c>
       <c r="J13" t="n">
         <v>62.37898333973251</v>
@@ -31928,7 +31928,7 @@
         <v>131.174732356691</v>
       </c>
       <c r="M13" t="n">
-        <v>138.3053632155082</v>
+        <v>138.3053632155083</v>
       </c>
       <c r="N13" t="n">
         <v>135.0167708059301</v>
@@ -31946,13 +31946,13 @@
         <v>39.67165379944927</v>
       </c>
       <c r="S13" t="n">
-        <v>15.37617475405261</v>
+        <v>15.37617475405262</v>
       </c>
       <c r="T13" t="n">
-        <v>3.769849835370229</v>
+        <v>3.76984983537023</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04812574257919448</v>
+        <v>0.04812574257919449</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>20.14400900002657</v>
       </c>
       <c r="I14" t="n">
-        <v>75.83077329169046</v>
+        <v>75.83077329169048</v>
       </c>
       <c r="J14" t="n">
         <v>166.9422759786165</v>
@@ -32004,16 +32004,16 @@
         <v>250.2031963712566</v>
       </c>
       <c r="L14" t="n">
-        <v>310.3991895785861</v>
+        <v>310.3991895785862</v>
       </c>
       <c r="M14" t="n">
-        <v>345.3789059271004</v>
+        <v>345.3789059271005</v>
       </c>
       <c r="N14" t="n">
         <v>350.9674977075302</v>
       </c>
       <c r="O14" t="n">
-        <v>331.4086558186968</v>
+        <v>331.4086558186969</v>
       </c>
       <c r="P14" t="n">
         <v>282.8496203310214</v>
@@ -32028,7 +32028,7 @@
         <v>44.82183376913032</v>
       </c>
       <c r="T14" t="n">
-        <v>8.610316064700729</v>
+        <v>8.610316064700731</v>
       </c>
       <c r="U14" t="n">
         <v>0.1573558618334798</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.052410106590308</v>
+        <v>1.052410106590309</v>
       </c>
       <c r="H15" t="n">
         <v>10.16406602943798</v>
       </c>
       <c r="I15" t="n">
-        <v>36.23429533655229</v>
+        <v>36.2342953365523</v>
       </c>
       <c r="J15" t="n">
-        <v>99.42967590377999</v>
+        <v>99.42967590378001</v>
       </c>
       <c r="K15" t="n">
         <v>169.9411530453307</v>
@@ -32092,7 +32092,7 @@
         <v>273.7143285556961</v>
       </c>
       <c r="O15" t="n">
-        <v>250.3951361938792</v>
+        <v>250.3951361938793</v>
       </c>
       <c r="P15" t="n">
         <v>200.9641720207406</v>
@@ -32101,16 +32101,16 @@
         <v>134.3392269394927</v>
       </c>
       <c r="R15" t="n">
-        <v>65.34174328461584</v>
+        <v>65.34174328461586</v>
       </c>
       <c r="S15" t="n">
-        <v>19.54805614653488</v>
+        <v>19.54805614653489</v>
       </c>
       <c r="T15" t="n">
-        <v>4.241951262967075</v>
+        <v>4.241951262967076</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06923750701252032</v>
+        <v>0.06923750701252034</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8823052806185645</v>
+        <v>0.8823052806185646</v>
       </c>
       <c r="H16" t="n">
-        <v>7.844496040408698</v>
+        <v>7.844496040408699</v>
       </c>
       <c r="I16" t="n">
-        <v>26.5333260753292</v>
+        <v>26.53332607532921</v>
       </c>
       <c r="J16" t="n">
         <v>62.37898333973251</v>
@@ -32165,7 +32165,7 @@
         <v>131.174732356691</v>
       </c>
       <c r="M16" t="n">
-        <v>138.3053632155082</v>
+        <v>138.3053632155083</v>
       </c>
       <c r="N16" t="n">
         <v>135.0167708059301</v>
@@ -32183,13 +32183,13 @@
         <v>39.67165379944927</v>
       </c>
       <c r="S16" t="n">
-        <v>15.37617475405261</v>
+        <v>15.37617475405262</v>
       </c>
       <c r="T16" t="n">
-        <v>3.769849835370229</v>
+        <v>3.76984983537023</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04812574257919448</v>
+        <v>0.04812574257919449</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,19 +32463,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.966948272918497</v>
+        <v>1.966948272918498</v>
       </c>
       <c r="H20" t="n">
         <v>20.14400900002657</v>
       </c>
       <c r="I20" t="n">
-        <v>75.83077329169045</v>
+        <v>75.83077329169046</v>
       </c>
       <c r="J20" t="n">
         <v>166.9422759786165</v>
       </c>
       <c r="K20" t="n">
-        <v>250.2031963712565</v>
+        <v>250.2031963712566</v>
       </c>
       <c r="L20" t="n">
         <v>310.3991895785861</v>
@@ -32484,13 +32484,13 @@
         <v>345.3789059271004</v>
       </c>
       <c r="N20" t="n">
-        <v>350.9674977075301</v>
+        <v>350.9674977075302</v>
       </c>
       <c r="O20" t="n">
         <v>331.4086558186968</v>
       </c>
       <c r="P20" t="n">
-        <v>282.8496203310213</v>
+        <v>282.8496203310214</v>
       </c>
       <c r="Q20" t="n">
         <v>212.4082853071276</v>
@@ -32499,10 +32499,10 @@
         <v>123.5563144487167</v>
       </c>
       <c r="S20" t="n">
-        <v>44.82183376913031</v>
+        <v>44.82183376913032</v>
       </c>
       <c r="T20" t="n">
-        <v>8.610316064700728</v>
+        <v>8.610316064700729</v>
       </c>
       <c r="U20" t="n">
         <v>0.1573558618334798</v>
@@ -32551,19 +32551,19 @@
         <v>36.23429533655229</v>
       </c>
       <c r="J21" t="n">
-        <v>99.42967590377998</v>
+        <v>99.42967590377999</v>
       </c>
       <c r="K21" t="n">
-        <v>169.9411530453306</v>
+        <v>169.9411530453307</v>
       </c>
       <c r="L21" t="n">
-        <v>228.5068523103211</v>
+        <v>228.5068523103212</v>
       </c>
       <c r="M21" t="n">
-        <v>266.6567186742197</v>
+        <v>266.6567186742198</v>
       </c>
       <c r="N21" t="n">
-        <v>273.714328555696</v>
+        <v>273.7143285556961</v>
       </c>
       <c r="O21" t="n">
         <v>250.3951361938792</v>
@@ -32575,16 +32575,16 @@
         <v>134.3392269394927</v>
       </c>
       <c r="R21" t="n">
-        <v>65.34174328461583</v>
+        <v>65.34174328461584</v>
       </c>
       <c r="S21" t="n">
         <v>19.54805614653488</v>
       </c>
       <c r="T21" t="n">
-        <v>4.241951262967074</v>
+        <v>4.241951262967075</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06923750701252031</v>
+        <v>0.06923750701252032</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8823052806185643</v>
+        <v>0.8823052806185645</v>
       </c>
       <c r="H22" t="n">
-        <v>7.844496040408696</v>
+        <v>7.844496040408698</v>
       </c>
       <c r="I22" t="n">
         <v>26.5333260753292</v>
       </c>
       <c r="J22" t="n">
-        <v>62.37898333973249</v>
+        <v>62.37898333973251</v>
       </c>
       <c r="K22" t="n">
         <v>102.5078316936841</v>
@@ -32642,25 +32642,25 @@
         <v>138.3053632155082</v>
       </c>
       <c r="N22" t="n">
-        <v>135.01677080593</v>
+        <v>135.0167708059301</v>
       </c>
       <c r="O22" t="n">
         <v>124.7098409368859</v>
       </c>
       <c r="P22" t="n">
-        <v>106.710813212267</v>
+        <v>106.7108132122671</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.88103581615997</v>
+        <v>73.88103581615999</v>
       </c>
       <c r="R22" t="n">
-        <v>39.67165379944925</v>
+        <v>39.67165379944927</v>
       </c>
       <c r="S22" t="n">
         <v>15.37617475405261</v>
       </c>
       <c r="T22" t="n">
-        <v>3.769849835370228</v>
+        <v>3.769849835370229</v>
       </c>
       <c r="U22" t="n">
         <v>0.04812574257919448</v>
@@ -34122,19 +34122,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.966948272918497</v>
+        <v>1.966948272918498</v>
       </c>
       <c r="H41" t="n">
         <v>20.14400900002657</v>
       </c>
       <c r="I41" t="n">
-        <v>75.83077329169045</v>
+        <v>75.83077329169046</v>
       </c>
       <c r="J41" t="n">
         <v>166.9422759786165</v>
       </c>
       <c r="K41" t="n">
-        <v>250.2031963712565</v>
+        <v>250.2031963712566</v>
       </c>
       <c r="L41" t="n">
         <v>310.3991895785861</v>
@@ -34149,7 +34149,7 @@
         <v>331.4086558186968</v>
       </c>
       <c r="P41" t="n">
-        <v>282.8496203310213</v>
+        <v>282.8496203310214</v>
       </c>
       <c r="Q41" t="n">
         <v>212.4082853071276</v>
@@ -34161,7 +34161,7 @@
         <v>44.82183376913031</v>
       </c>
       <c r="T41" t="n">
-        <v>8.610316064700728</v>
+        <v>8.610316064700729</v>
       </c>
       <c r="U41" t="n">
         <v>0.1573558618334798</v>
@@ -34213,7 +34213,7 @@
         <v>99.42967590377998</v>
       </c>
       <c r="K42" t="n">
-        <v>169.9411530453306</v>
+        <v>169.9411530453307</v>
       </c>
       <c r="L42" t="n">
         <v>228.5068523103211</v>
@@ -34222,7 +34222,7 @@
         <v>266.6567186742197</v>
       </c>
       <c r="N42" t="n">
-        <v>273.714328555696</v>
+        <v>273.7143285556961</v>
       </c>
       <c r="O42" t="n">
         <v>250.3951361938792</v>
@@ -34234,16 +34234,16 @@
         <v>134.3392269394927</v>
       </c>
       <c r="R42" t="n">
-        <v>65.34174328461583</v>
+        <v>65.34174328461584</v>
       </c>
       <c r="S42" t="n">
         <v>19.54805614653488</v>
       </c>
       <c r="T42" t="n">
-        <v>4.241951262967074</v>
+        <v>4.241951262967075</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06923750701252031</v>
+        <v>0.06923750701252032</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8823052806185643</v>
+        <v>0.8823052806185644</v>
       </c>
       <c r="H43" t="n">
-        <v>7.844496040408696</v>
+        <v>7.844496040408697</v>
       </c>
       <c r="I43" t="n">
         <v>26.5333260753292</v>
       </c>
       <c r="J43" t="n">
-        <v>62.37898333973249</v>
+        <v>62.3789833397325</v>
       </c>
       <c r="K43" t="n">
         <v>102.5078316936841</v>
@@ -34307,19 +34307,19 @@
         <v>124.7098409368859</v>
       </c>
       <c r="P43" t="n">
-        <v>106.710813212267</v>
+        <v>106.7108132122671</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.88103581615997</v>
+        <v>73.88103581615998</v>
       </c>
       <c r="R43" t="n">
-        <v>39.67165379944925</v>
+        <v>39.67165379944926</v>
       </c>
       <c r="S43" t="n">
         <v>15.37617475405261</v>
       </c>
       <c r="T43" t="n">
-        <v>3.769849835370228</v>
+        <v>3.769849835370229</v>
       </c>
       <c r="U43" t="n">
         <v>0.04812574257919448</v>
@@ -34359,34 +34359,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.966948272918497</v>
+        <v>1.966948272918498</v>
       </c>
       <c r="H44" t="n">
         <v>20.14400900002657</v>
       </c>
       <c r="I44" t="n">
-        <v>75.83077329169045</v>
+        <v>75.83077329169046</v>
       </c>
       <c r="J44" t="n">
         <v>166.9422759786165</v>
       </c>
       <c r="K44" t="n">
-        <v>250.2031963712565</v>
+        <v>250.2031963712566</v>
       </c>
       <c r="L44" t="n">
         <v>310.3991895785861</v>
       </c>
       <c r="M44" t="n">
-        <v>345.3789059271009</v>
+        <v>345.3789059271004</v>
       </c>
       <c r="N44" t="n">
-        <v>350.9674977075301</v>
+        <v>350.9674977075302</v>
       </c>
       <c r="O44" t="n">
         <v>331.4086558186968</v>
       </c>
       <c r="P44" t="n">
-        <v>282.8496203310213</v>
+        <v>282.8496203310214</v>
       </c>
       <c r="Q44" t="n">
         <v>212.4082853071276</v>
@@ -34395,10 +34395,10 @@
         <v>123.5563144487167</v>
       </c>
       <c r="S44" t="n">
-        <v>44.82183376913031</v>
+        <v>44.82183376913032</v>
       </c>
       <c r="T44" t="n">
-        <v>8.610316064700728</v>
+        <v>8.610316064700729</v>
       </c>
       <c r="U44" t="n">
         <v>0.1573558618334798</v>
@@ -34447,19 +34447,19 @@
         <v>36.23429533655229</v>
       </c>
       <c r="J45" t="n">
-        <v>99.42967590377998</v>
+        <v>99.42967590377999</v>
       </c>
       <c r="K45" t="n">
-        <v>169.9411530453306</v>
+        <v>169.9411530453307</v>
       </c>
       <c r="L45" t="n">
-        <v>228.5068523103211</v>
+        <v>228.5068523103212</v>
       </c>
       <c r="M45" t="n">
-        <v>266.6567186742197</v>
+        <v>266.6567186742198</v>
       </c>
       <c r="N45" t="n">
-        <v>273.714328555696</v>
+        <v>273.7143285556961</v>
       </c>
       <c r="O45" t="n">
         <v>250.3951361938792</v>
@@ -34471,16 +34471,16 @@
         <v>134.3392269394927</v>
       </c>
       <c r="R45" t="n">
-        <v>65.34174328461583</v>
+        <v>65.34174328461584</v>
       </c>
       <c r="S45" t="n">
         <v>19.54805614653488</v>
       </c>
       <c r="T45" t="n">
-        <v>4.241951262967074</v>
+        <v>4.241951262967075</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06923750701252031</v>
+        <v>0.06923750701252032</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8823052806185643</v>
+        <v>0.8823052806185645</v>
       </c>
       <c r="H46" t="n">
-        <v>7.844496040408696</v>
+        <v>7.844496040408698</v>
       </c>
       <c r="I46" t="n">
         <v>26.5333260753292</v>
       </c>
       <c r="J46" t="n">
-        <v>62.37898333973249</v>
+        <v>62.37898333973251</v>
       </c>
       <c r="K46" t="n">
         <v>102.5078316936841</v>
@@ -34538,25 +34538,25 @@
         <v>138.3053632155082</v>
       </c>
       <c r="N46" t="n">
-        <v>135.01677080593</v>
+        <v>135.0167708059301</v>
       </c>
       <c r="O46" t="n">
         <v>124.7098409368859</v>
       </c>
       <c r="P46" t="n">
-        <v>106.710813212267</v>
+        <v>106.7108132122671</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.88103581615997</v>
+        <v>73.88103581615999</v>
       </c>
       <c r="R46" t="n">
-        <v>39.67165379944925</v>
+        <v>39.67165379944927</v>
       </c>
       <c r="S46" t="n">
         <v>15.37617475405261</v>
       </c>
       <c r="T46" t="n">
-        <v>3.769849835370228</v>
+        <v>3.769849835370229</v>
       </c>
       <c r="U46" t="n">
         <v>0.04812574257919448</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>93.61868464530858</v>
+        <v>93.6186846453086</v>
       </c>
       <c r="K11" t="n">
-        <v>161.0668066980394</v>
+        <v>161.0668066980395</v>
       </c>
       <c r="L11" t="n">
-        <v>214.9137915157413</v>
+        <v>214.9137915157414</v>
       </c>
       <c r="M11" t="n">
-        <v>252.088681470055</v>
+        <v>252.0886814700551</v>
       </c>
       <c r="N11" t="n">
         <v>258.0552069509109</v>
       </c>
       <c r="O11" t="n">
-        <v>238.2188801929137</v>
+        <v>238.2188801929138</v>
       </c>
       <c r="P11" t="n">
-        <v>189.2002570501372</v>
+        <v>189.2002570501373</v>
       </c>
       <c r="Q11" t="n">
         <v>122.3744809079756</v>
       </c>
       <c r="R11" t="n">
-        <v>36.24417163399319</v>
+        <v>36.2441716339932</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>220.5209351619461</v>
       </c>
       <c r="O12" t="n">
-        <v>192.6436571938792</v>
+        <v>192.6436571938793</v>
       </c>
       <c r="P12" t="n">
-        <v>146.7045370179368</v>
+        <v>146.7045370179369</v>
       </c>
       <c r="Q12" t="n">
-        <v>395.4395794526591</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="R12" t="n">
-        <v>6.341544179210437</v>
+        <v>6.341544179210452</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.94583765677709</v>
+        <v>76.60378071873305</v>
       </c>
       <c r="K13" t="n">
-        <v>50.25746213461728</v>
+        <v>258.6212940393791</v>
       </c>
       <c r="L13" t="n">
         <v>393.6970558719037</v>
       </c>
       <c r="M13" t="n">
-        <v>265.0962686104288</v>
+        <v>82.04042071672822</v>
       </c>
       <c r="N13" t="n">
-        <v>395.4395794526591</v>
+        <v>176.9241976262715</v>
       </c>
       <c r="O13" t="n">
         <v>386.8922756100921</v>
       </c>
       <c r="P13" t="n">
-        <v>50.93097157236229</v>
+        <v>50.9309715723623</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.52151015623443</v>
+        <v>140.0709649096053</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>93.61868464530858</v>
+        <v>93.6186846453086</v>
       </c>
       <c r="K14" t="n">
-        <v>161.0668066980394</v>
+        <v>161.0668066980395</v>
       </c>
       <c r="L14" t="n">
-        <v>214.9137915157413</v>
+        <v>214.9137915157414</v>
       </c>
       <c r="M14" t="n">
-        <v>252.088681470055</v>
+        <v>252.0886814700551</v>
       </c>
       <c r="N14" t="n">
         <v>258.0552069509109</v>
       </c>
       <c r="O14" t="n">
-        <v>238.2188801929137</v>
+        <v>238.2188801929138</v>
       </c>
       <c r="P14" t="n">
-        <v>189.2002570501372</v>
+        <v>189.2002570501373</v>
       </c>
       <c r="Q14" t="n">
         <v>122.3744809079756</v>
       </c>
       <c r="R14" t="n">
-        <v>36.24417163399319</v>
+        <v>36.2441716339932</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.69318987059007</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>294.190138088258</v>
@@ -35734,22 +35734,22 @@
         <v>172.3923284994721</v>
       </c>
       <c r="M15" t="n">
-        <v>209.0924349358024</v>
+        <v>341.2258422290028</v>
       </c>
       <c r="N15" t="n">
         <v>220.5209351619461</v>
       </c>
       <c r="O15" t="n">
-        <v>192.6436571938792</v>
+        <v>192.6436571938793</v>
       </c>
       <c r="P15" t="n">
-        <v>146.7045370179368</v>
+        <v>146.7045370179369</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.228526385566</v>
+        <v>77.64660843465401</v>
       </c>
       <c r="R15" t="n">
-        <v>95.19984365090866</v>
+        <v>6.341544179210452</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35813,10 +35813,10 @@
         <v>76.54643846278947</v>
       </c>
       <c r="M16" t="n">
-        <v>294.9362419275505</v>
+        <v>82.04042071672822</v>
       </c>
       <c r="N16" t="n">
-        <v>83.30412529751062</v>
+        <v>296.1999465083333</v>
       </c>
       <c r="O16" t="n">
         <v>386.8922756100921</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>15.69318987059007</v>
       </c>
       <c r="J18" t="n">
         <v>294.190138088258</v>
@@ -35983,7 +35983,7 @@
         <v>146.7045370179368</v>
       </c>
       <c r="Q18" t="n">
-        <v>120.921716256156</v>
+        <v>105.228526385566</v>
       </c>
       <c r="R18" t="n">
         <v>95.19984365090866</v>
@@ -36044,19 +36044,19 @@
         <v>76.60378071873303</v>
       </c>
       <c r="K19" t="n">
-        <v>50.25746213461728</v>
+        <v>258.6212940393791</v>
       </c>
       <c r="L19" t="n">
-        <v>393.6970558719037</v>
+        <v>76.54643846278947</v>
       </c>
       <c r="M19" t="n">
-        <v>199.4383255484728</v>
+        <v>395.4395794526591</v>
       </c>
       <c r="N19" t="n">
         <v>395.4395794526591</v>
       </c>
       <c r="O19" t="n">
-        <v>386.8922756100921</v>
+        <v>299.6778072102581</v>
       </c>
       <c r="P19" t="n">
         <v>50.93097157236229</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>93.61868464530855</v>
+        <v>93.61868464530858</v>
       </c>
       <c r="K20" t="n">
         <v>161.0668066980394</v>
@@ -36132,19 +36132,19 @@
         <v>252.088681470055</v>
       </c>
       <c r="N20" t="n">
-        <v>258.0552069509108</v>
+        <v>258.0552069509109</v>
       </c>
       <c r="O20" t="n">
         <v>238.2188801929137</v>
       </c>
       <c r="P20" t="n">
-        <v>189.2002570501371</v>
+        <v>189.2002570501372</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.3744809079755</v>
+        <v>122.3744809079756</v>
       </c>
       <c r="R20" t="n">
-        <v>36.24417163399316</v>
+        <v>36.24417163399319</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>15.69318987059006</v>
+        <v>15.69318987059007</v>
       </c>
       <c r="J21" t="n">
         <v>294.190138088258</v>
       </c>
       <c r="K21" t="n">
-        <v>114.1153702607152</v>
+        <v>114.1153702607153</v>
       </c>
       <c r="L21" t="n">
         <v>172.3923284994721</v>
       </c>
       <c r="M21" t="n">
-        <v>209.0924349358023</v>
+        <v>209.0924349358024</v>
       </c>
       <c r="N21" t="n">
-        <v>220.520935161946</v>
+        <v>220.5209351619461</v>
       </c>
       <c r="O21" t="n">
         <v>192.6436571938792</v>
@@ -36220,7 +36220,7 @@
         <v>146.7045370179368</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.2285263855662</v>
+        <v>105.2285263855664</v>
       </c>
       <c r="R21" t="n">
         <v>95.19984365090866</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>10.94583765677707</v>
+        <v>76.60378071873303</v>
       </c>
       <c r="K22" t="n">
-        <v>50.25746213461727</v>
+        <v>258.6212940393791</v>
       </c>
       <c r="L22" t="n">
         <v>393.6970558719037</v>
       </c>
       <c r="M22" t="n">
-        <v>265.0962686104288</v>
+        <v>309.331826389914</v>
       </c>
       <c r="N22" t="n">
-        <v>395.4395794526591</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="O22" t="n">
-        <v>386.892275610092</v>
+        <v>68.63494286388956</v>
       </c>
       <c r="P22" t="n">
-        <v>50.93097157236226</v>
+        <v>50.93097157236229</v>
       </c>
       <c r="Q22" t="n">
-        <v>12.5215101562344</v>
+        <v>12.52151015623443</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>56.14103671781572</v>
+        <v>294.190138088258</v>
       </c>
       <c r="K24" t="n">
-        <v>395.439579452659</v>
+        <v>246.2487775539161</v>
       </c>
       <c r="L24" t="n">
         <v>172.3923284994721</v>
@@ -36460,7 +36460,7 @@
         <v>77.64660843465398</v>
       </c>
       <c r="R24" t="n">
-        <v>95.19984365090866</v>
+        <v>6.341544179210437</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>76.60378071873302</v>
+        <v>10.94583765677708</v>
       </c>
       <c r="K25" t="n">
-        <v>258.621294039379</v>
+        <v>50.25746213461727</v>
       </c>
       <c r="L25" t="n">
-        <v>393.6970558719037</v>
+        <v>318.0782661868678</v>
       </c>
       <c r="M25" t="n">
-        <v>175.6604930454883</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="N25" t="n">
-        <v>83.30412529751059</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="O25" t="n">
-        <v>386.8922756100921</v>
+        <v>68.63494286388953</v>
       </c>
       <c r="P25" t="n">
-        <v>50.93097157236227</v>
+        <v>314.4637831613704</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.0709649096053</v>
+        <v>12.52151015623441</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>15.69318987059006</v>
       </c>
       <c r="J27" t="n">
-        <v>48.06043710377997</v>
+        <v>294.190138088258</v>
       </c>
       <c r="K27" t="n">
         <v>114.1153702607153</v>
@@ -36694,7 +36694,7 @@
         <v>146.7045370179368</v>
       </c>
       <c r="Q27" t="n">
-        <v>351.358227370044</v>
+        <v>105.2285263855666</v>
       </c>
       <c r="R27" t="n">
         <v>95.19984365090866</v>
@@ -36761,16 +36761,16 @@
         <v>393.6970558719037</v>
       </c>
       <c r="M28" t="n">
-        <v>395.4395794526591</v>
+        <v>82.04042071672819</v>
       </c>
       <c r="N28" t="n">
-        <v>395.4395794526591</v>
+        <v>314.9626157573518</v>
       </c>
       <c r="O28" t="n">
-        <v>256.5489647678618</v>
+        <v>386.8922756100921</v>
       </c>
       <c r="P28" t="n">
-        <v>50.93097157236227</v>
+        <v>314.4637831613704</v>
       </c>
       <c r="Q28" t="n">
         <v>12.52151015623441</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15.69318987059006</v>
       </c>
       <c r="J30" t="n">
-        <v>251.4049010907453</v>
+        <v>294.190138088258</v>
       </c>
       <c r="K30" t="n">
         <v>114.1153702607153</v>
@@ -36922,7 +36922,7 @@
         <v>209.0924349358023</v>
       </c>
       <c r="N30" t="n">
-        <v>395.4395794526591</v>
+        <v>220.5209351619461</v>
       </c>
       <c r="O30" t="n">
         <v>192.6436571938792</v>
@@ -36931,10 +36931,10 @@
         <v>146.7045370179368</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.64660843465398</v>
+        <v>105.2285263855662</v>
       </c>
       <c r="R30" t="n">
-        <v>6.341544179210437</v>
+        <v>95.19984365090866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>10.94583765677708</v>
       </c>
       <c r="K31" t="n">
-        <v>258.621294039379</v>
+        <v>50.25746213461727</v>
       </c>
       <c r="L31" t="n">
-        <v>393.6970558719037</v>
+        <v>263.3537450296733</v>
       </c>
       <c r="M31" t="n">
-        <v>105.3350792718073</v>
+        <v>395.4395794526591</v>
       </c>
       <c r="N31" t="n">
-        <v>83.30412529751059</v>
+        <v>395.4395794526591</v>
       </c>
       <c r="O31" t="n">
         <v>386.8922756100921</v>
       </c>
       <c r="P31" t="n">
-        <v>314.4637831613704</v>
+        <v>50.93097157236227</v>
       </c>
       <c r="Q31" t="n">
         <v>12.52151015623441</v>
@@ -37147,7 +37147,7 @@
         <v>15.69318987059006</v>
       </c>
       <c r="J33" t="n">
-        <v>48.06043710377997</v>
+        <v>294.190138088258</v>
       </c>
       <c r="K33" t="n">
         <v>114.1153702607153</v>
@@ -37159,7 +37159,7 @@
         <v>209.0924349358023</v>
       </c>
       <c r="N33" t="n">
-        <v>395.4395794526591</v>
+        <v>220.5209351619461</v>
       </c>
       <c r="O33" t="n">
         <v>192.6436571938792</v>
@@ -37168,7 +37168,7 @@
         <v>146.7045370179368</v>
       </c>
       <c r="Q33" t="n">
-        <v>176.439583079331</v>
+        <v>105.2285263855666</v>
       </c>
       <c r="R33" t="n">
         <v>95.19984365090866</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.60378071873302</v>
+        <v>10.94583765677708</v>
       </c>
       <c r="K34" t="n">
-        <v>258.621294039379</v>
+        <v>50.25746213461727</v>
       </c>
       <c r="L34" t="n">
         <v>76.54643846278944</v>
       </c>
       <c r="M34" t="n">
-        <v>395.4395794526591</v>
+        <v>318.714074430535</v>
       </c>
       <c r="N34" t="n">
-        <v>83.30412529751059</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="O34" t="n">
-        <v>220.7309950230275</v>
+        <v>386.8922756100921</v>
       </c>
       <c r="P34" t="n">
         <v>314.4637831613704</v>
       </c>
       <c r="Q34" t="n">
-        <v>140.0709649096053</v>
+        <v>12.52151015623441</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>15.69318987059006</v>
       </c>
       <c r="J36" t="n">
-        <v>294.190138088258</v>
+        <v>48.06043710377997</v>
       </c>
       <c r="K36" t="n">
         <v>114.1153702607153</v>
@@ -37405,10 +37405,10 @@
         <v>146.7045370179368</v>
       </c>
       <c r="Q36" t="n">
-        <v>209.7800157278551</v>
+        <v>351.3582273700445</v>
       </c>
       <c r="R36" t="n">
-        <v>6.341544179210437</v>
+        <v>95.19984365090866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>76.60378071873302</v>
+        <v>10.94583765677708</v>
       </c>
       <c r="K37" t="n">
-        <v>258.621294039379</v>
+        <v>50.25746213461727</v>
       </c>
       <c r="L37" t="n">
-        <v>393.6970558719037</v>
+        <v>263.3537450296735</v>
       </c>
       <c r="M37" t="n">
-        <v>82.04042071672819</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="N37" t="n">
-        <v>83.30412529751059</v>
+        <v>395.4395794526592</v>
       </c>
       <c r="O37" t="n">
-        <v>216.9795363498448</v>
+        <v>386.8922756100921</v>
       </c>
       <c r="P37" t="n">
-        <v>314.4637831613704</v>
+        <v>50.93097157236227</v>
       </c>
       <c r="Q37" t="n">
-        <v>140.0709649096053</v>
+        <v>12.52151015623441</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>15.69318987059006</v>
       </c>
       <c r="J39" t="n">
-        <v>48.06043710377997</v>
+        <v>294.190138088258</v>
       </c>
       <c r="K39" t="n">
         <v>114.1153702607153</v>
@@ -37630,10 +37630,10 @@
         <v>172.3923284994721</v>
       </c>
       <c r="M39" t="n">
-        <v>395.4395794526592</v>
+        <v>209.0924349358023</v>
       </c>
       <c r="N39" t="n">
-        <v>395.4395794526592</v>
+        <v>220.5209351619461</v>
       </c>
       <c r="O39" t="n">
         <v>192.6436571938792</v>
@@ -37642,10 +37642,10 @@
         <v>146.7045370179368</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.64392790476272</v>
+        <v>105.2285263855666</v>
       </c>
       <c r="R39" t="n">
-        <v>6.341544179210437</v>
+        <v>95.19984365090866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>76.60378071873302</v>
+        <v>10.94583765677708</v>
       </c>
       <c r="K40" t="n">
         <v>258.621294039379</v>
       </c>
       <c r="L40" t="n">
-        <v>180.0398480557874</v>
+        <v>393.6970558719037</v>
       </c>
       <c r="M40" t="n">
-        <v>395.4395794526592</v>
+        <v>82.04042071672819</v>
       </c>
       <c r="N40" t="n">
-        <v>395.4395794526592</v>
+        <v>370.1315954415984</v>
       </c>
       <c r="O40" t="n">
-        <v>68.63494286388953</v>
+        <v>386.8922756100921</v>
       </c>
       <c r="P40" t="n">
         <v>50.93097157236227</v>
       </c>
       <c r="Q40" t="n">
-        <v>140.0709649096053</v>
+        <v>12.52151015623441</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37797,13 +37797,13 @@
         <v>238.2188801929137</v>
       </c>
       <c r="P41" t="n">
-        <v>189.2002570501371</v>
+        <v>189.2002570501372</v>
       </c>
       <c r="Q41" t="n">
         <v>122.3744809079755</v>
       </c>
       <c r="R41" t="n">
-        <v>36.24417163399316</v>
+        <v>36.24417163399318</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>15.69318987059006</v>
       </c>
       <c r="J42" t="n">
-        <v>48.06043710377997</v>
+        <v>294.190138088258</v>
       </c>
       <c r="K42" t="n">
-        <v>114.1153702607152</v>
+        <v>114.1153702607153</v>
       </c>
       <c r="L42" t="n">
         <v>172.3923284994721</v>
@@ -37870,7 +37870,7 @@
         <v>209.0924349358023</v>
       </c>
       <c r="N42" t="n">
-        <v>220.520935161946</v>
+        <v>220.5209351619461</v>
       </c>
       <c r="O42" t="n">
         <v>192.6436571938792</v>
@@ -37879,7 +37879,7 @@
         <v>146.7045370179368</v>
       </c>
       <c r="Q42" t="n">
-        <v>351.3582273700445</v>
+        <v>105.2285263855666</v>
       </c>
       <c r="R42" t="n">
         <v>95.19984365090866</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>10.94583765677707</v>
+        <v>10.94583765677708</v>
       </c>
       <c r="K43" t="n">
-        <v>258.621294039379</v>
+        <v>50.25746213461727</v>
       </c>
       <c r="L43" t="n">
-        <v>76.54643846278944</v>
+        <v>263.3537450296735</v>
       </c>
       <c r="M43" t="n">
         <v>395.4395794526592</v>
@@ -37952,13 +37952,13 @@
         <v>395.4395794526592</v>
       </c>
       <c r="O43" t="n">
-        <v>68.63494286388953</v>
+        <v>386.8922756100921</v>
       </c>
       <c r="P43" t="n">
-        <v>220.0823242273161</v>
+        <v>50.93097157236227</v>
       </c>
       <c r="Q43" t="n">
-        <v>140.0709649096053</v>
+        <v>12.52151015623441</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>93.61868464530855</v>
+        <v>93.61868464530858</v>
       </c>
       <c r="K44" t="n">
         <v>161.0668066980394</v>
@@ -38025,22 +38025,22 @@
         <v>214.9137915157413</v>
       </c>
       <c r="M44" t="n">
-        <v>252.0886814700554</v>
+        <v>252.088681470055</v>
       </c>
       <c r="N44" t="n">
-        <v>258.0552069509108</v>
+        <v>258.0552069509109</v>
       </c>
       <c r="O44" t="n">
         <v>238.2188801929137</v>
       </c>
       <c r="P44" t="n">
-        <v>189.2002570501371</v>
+        <v>189.2002570501372</v>
       </c>
       <c r="Q44" t="n">
-        <v>122.3744809079755</v>
+        <v>122.3744809079756</v>
       </c>
       <c r="R44" t="n">
-        <v>36.24417163399316</v>
+        <v>36.24417163399319</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.69318987059006</v>
+        <v>15.69318987059007</v>
       </c>
       <c r="J45" t="n">
         <v>294.190138088258</v>
       </c>
       <c r="K45" t="n">
-        <v>114.1153702607152</v>
+        <v>114.1153702607153</v>
       </c>
       <c r="L45" t="n">
         <v>172.3923284994721</v>
       </c>
       <c r="M45" t="n">
-        <v>209.0924349358023</v>
+        <v>209.0924349358024</v>
       </c>
       <c r="N45" t="n">
-        <v>220.520935161946</v>
+        <v>220.5209351619461</v>
       </c>
       <c r="O45" t="n">
         <v>192.6436571938792</v>
@@ -38116,10 +38116,10 @@
         <v>146.7045370179368</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.0868258572648</v>
+        <v>105.228526385566</v>
       </c>
       <c r="R45" t="n">
-        <v>6.341544179210423</v>
+        <v>95.19984365090866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>10.94583765677707</v>
+        <v>34.24049621185621</v>
       </c>
       <c r="K46" t="n">
-        <v>50.25746213461727</v>
+        <v>258.6212940393791</v>
       </c>
       <c r="L46" t="n">
-        <v>263.3537450296733</v>
+        <v>393.6970558719037</v>
       </c>
       <c r="M46" t="n">
-        <v>395.4395794526592</v>
+        <v>82.04042071672819</v>
       </c>
       <c r="N46" t="n">
-        <v>395.4395794526592</v>
+        <v>83.30412529751062</v>
       </c>
       <c r="O46" t="n">
-        <v>386.892275610092</v>
+        <v>386.8922756100921</v>
       </c>
       <c r="P46" t="n">
-        <v>50.93097157236226</v>
+        <v>314.4637831613705</v>
       </c>
       <c r="Q46" t="n">
-        <v>12.5215101562344</v>
+        <v>12.52151015623443</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
